--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/mthomso1_uvm_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{1CFE31D7-9F63-4C4A-B39B-2ECB20493AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="22860" windowHeight="20000" firstSheet="2" activeTab="2" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -655,7 +655,7 @@
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -889,7 +889,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>32</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>32</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>32</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>32</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>32</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>32</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>32</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>32</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>32</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>32</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>32</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>41</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>41</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>41</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>41</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>41</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>41</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>41</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>41</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>41</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>41</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>41</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>41</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>41</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>41</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>41</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>41</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>41</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>41</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>41</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>41</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>41</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>41</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>41</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>41</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>41</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>41</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>41</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>41</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>41</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>41</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>41</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>41</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>41</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>41</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>41</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>41</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>41</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>41</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>41</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>41</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>41</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>41</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>41</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>41</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>41</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>41</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>41</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>41</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>41</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>41</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>41</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>41</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>41</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>41</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>41</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>41</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>41</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>41</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>41</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>41</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>41</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>41</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>41</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>41</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>41</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>41</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>41</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>41</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>41</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>41</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>41</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>41</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>41</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>41</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>41</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>41</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>41</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>41</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>41</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>41</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>41</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>41</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>41</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>41</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>41</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>41</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>41</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>41</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>41</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>41</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>41</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>41</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>41</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>41</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>41</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>41</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>41</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>41</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>41</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>41</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>41</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>41</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>41</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>41</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>41</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>41</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>41</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>41</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>41</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>41</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>41</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>41</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>41</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>41</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>41</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>41</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>41</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>41</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>41</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>41</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>41</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>41</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>41</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>41</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>41</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>41</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>41</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>41</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>41</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>41</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>41</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>41</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>41</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>41</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>41</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>41</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>41</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>41</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>41</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>41</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>41</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>41</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>41</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>41</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>41</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>41</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>41</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>41</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>41</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>41</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>41</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>41</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>41</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>41</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>41</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>41</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>41</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>41</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>41</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>52</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>52</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>52</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>52</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>52</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>52</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>52</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>52</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>52</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>52</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>52</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>52</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>52</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>52</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>52</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>52</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>52</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>52</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>52</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>52</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>52</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>52</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>52</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>52</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>52</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>52</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>52</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>52</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>52</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>52</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>52</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>52</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>52</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>52</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>52</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>52</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>52</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>52</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>52</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>52</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>52</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>52</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>52</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>52</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>52</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>52</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>52</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>52</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>52</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>52</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>52</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>52</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>52</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>52</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>52</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>52</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>52</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>52</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>52</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>52</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>52</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>52</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>52</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>52</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>52</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>52</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>52</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>52</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>52</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>52</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>52</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>52</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>52</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>52</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>52</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>52</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>52</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>52</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>52</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>52</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>52</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>52</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>52</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>52</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>52</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>52</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>52</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>52</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>52</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>52</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>52</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>52</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>52</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>52</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>52</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>52</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>52</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>52</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>52</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>52</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>52</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>52</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>52</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>52</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>52</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>52</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>52</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>52</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>52</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>52</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>52</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>52</v>
       </c>
@@ -16866,9 +16866,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -17152,13 +17152,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A500" sqref="A500:D525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/mthomso1_uvm_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CFE31D7-9F63-4C4A-B39B-2ECB20493AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="22860" windowHeight="20000" firstSheet="2" activeTab="2" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -655,7 +655,7 @@
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -889,7 +889,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>32</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>32</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>32</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>32</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>32</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>32</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>32</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>32</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>32</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>32</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>32</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>41</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>41</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>41</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>41</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>41</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>41</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>41</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>41</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>41</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>41</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>41</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>41</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>41</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>41</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>41</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>41</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>41</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>41</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>41</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>41</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>41</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>41</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>41</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>41</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>41</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>41</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>41</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>41</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>41</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>41</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>41</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>41</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>41</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>41</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>41</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>41</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>41</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>41</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>41</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>41</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>41</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>41</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>41</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>41</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>41</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>41</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>41</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>41</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>41</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>41</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>41</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>41</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>41</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>41</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>41</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>41</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>41</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>41</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>41</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>41</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>41</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>41</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>41</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>41</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>41</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>41</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>41</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>41</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>41</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>41</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>41</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>41</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>41</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>41</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>41</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>41</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>41</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>41</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>41</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>41</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>41</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>41</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>41</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>41</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>41</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>41</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>41</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>41</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>41</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>41</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>41</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>41</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>41</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>41</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>41</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>41</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419" t="s">
         <v>41</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>41</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
         <v>41</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>41</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>41</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>41</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>41</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>41</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428" t="s">
         <v>41</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429" t="s">
         <v>41</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>41</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>41</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>41</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447" t="s">
         <v>41</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448" t="s">
         <v>41</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>41</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>41</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451" t="s">
         <v>41</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452" t="s">
         <v>41</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453" t="s">
         <v>41</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454" t="s">
         <v>41</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455" t="s">
         <v>41</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456" t="s">
         <v>41</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457" t="s">
         <v>41</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
         <v>41</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>41</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
         <v>41</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
         <v>41</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>41</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463" t="s">
         <v>41</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464" t="s">
         <v>41</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>41</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>41</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467" t="s">
         <v>41</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>41</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469" t="s">
         <v>41</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>41</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471" t="s">
         <v>41</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>41</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473" t="s">
         <v>41</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>41</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>41</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>41</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>41</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>41</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479" t="s">
         <v>41</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>41</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481" t="s">
         <v>41</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482" t="s">
         <v>41</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483" t="s">
         <v>41</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484" t="s">
         <v>41</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485" t="s">
         <v>41</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486" t="s">
         <v>41</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487" t="s">
         <v>41</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488" t="s">
         <v>41</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489" t="s">
         <v>41</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490" t="s">
         <v>41</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>41</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492" t="s">
         <v>41</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493" t="s">
         <v>41</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>41</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>41</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>41</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
         <v>52</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499" t="s">
         <v>52</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500" t="s">
         <v>52</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501" t="s">
         <v>52</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" t="s">
         <v>52</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503" t="s">
         <v>52</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504" t="s">
         <v>52</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" t="s">
         <v>52</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506" t="s">
         <v>52</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507" t="s">
         <v>52</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508" t="s">
         <v>52</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509" t="s">
         <v>52</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510" t="s">
         <v>52</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" t="s">
         <v>52</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" t="s">
         <v>52</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513" t="s">
         <v>52</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514" t="s">
         <v>52</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515" t="s">
         <v>52</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516" t="s">
         <v>52</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517" t="s">
         <v>52</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518" t="s">
         <v>52</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>52</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520" t="s">
         <v>52</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>52</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522" t="s">
         <v>52</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523" t="s">
         <v>52</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" t="s">
         <v>52</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525" t="s">
         <v>52</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527" t="s">
         <v>52</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>52</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>52</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>52</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>52</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>52</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533" t="s">
         <v>52</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
         <v>52</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
         <v>52</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>52</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537" t="s">
         <v>52</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>52</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539" t="s">
         <v>52</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540" t="s">
         <v>52</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541" t="s">
         <v>52</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542" t="s">
         <v>52</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8">
       <c r="A543" t="s">
         <v>52</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8">
       <c r="A544" t="s">
         <v>52</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8">
       <c r="A545" t="s">
         <v>52</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8">
       <c r="A546" t="s">
         <v>52</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8">
       <c r="A547" t="s">
         <v>52</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8">
       <c r="A548" t="s">
         <v>52</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8">
       <c r="A549" t="s">
         <v>52</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8">
       <c r="A550" t="s">
         <v>52</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8">
       <c r="A551" t="s">
         <v>52</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8">
       <c r="A552" t="s">
         <v>52</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8">
       <c r="A553" t="s">
         <v>52</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8">
       <c r="A554" t="s">
         <v>52</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8">
       <c r="A555" t="s">
         <v>52</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8">
       <c r="A569" t="s">
         <v>52</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8">
       <c r="A570" t="s">
         <v>52</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8">
       <c r="A571" t="s">
         <v>52</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8">
       <c r="A572" t="s">
         <v>52</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8">
       <c r="A573" t="s">
         <v>52</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8">
       <c r="A574" t="s">
         <v>52</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8">
       <c r="A575" t="s">
         <v>52</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8">
       <c r="A576" t="s">
         <v>52</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8">
       <c r="A577" t="s">
         <v>52</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8">
       <c r="A578" t="s">
         <v>52</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8">
       <c r="A579" t="s">
         <v>52</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8">
       <c r="A580" t="s">
         <v>52</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8">
       <c r="A581" t="s">
         <v>52</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8">
       <c r="A582" t="s">
         <v>52</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8">
       <c r="A583" t="s">
         <v>52</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8">
       <c r="A584" t="s">
         <v>52</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8">
       <c r="A585" t="s">
         <v>52</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8">
       <c r="A586" t="s">
         <v>52</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8">
       <c r="A587" t="s">
         <v>52</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8">
       <c r="A588" t="s">
         <v>52</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8">
       <c r="A589" t="s">
         <v>52</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8">
       <c r="A590" t="s">
         <v>52</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8">
       <c r="A591" t="s">
         <v>52</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8">
       <c r="A592" t="s">
         <v>52</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8">
       <c r="A593" t="s">
         <v>52</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8">
       <c r="A594" t="s">
         <v>52</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8">
       <c r="A595" t="s">
         <v>52</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8">
       <c r="A596" t="s">
         <v>52</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8">
       <c r="A597" t="s">
         <v>52</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8">
       <c r="A598" t="s">
         <v>52</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8">
       <c r="A599" t="s">
         <v>52</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8">
       <c r="A600" t="s">
         <v>52</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8">
       <c r="A601" t="s">
         <v>52</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8">
       <c r="A602" t="s">
         <v>52</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8">
       <c r="A603" t="s">
         <v>52</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8">
       <c r="A604" t="s">
         <v>52</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8">
       <c r="A605" t="s">
         <v>52</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8">
       <c r="A606" t="s">
         <v>52</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8">
       <c r="A607" t="s">
         <v>52</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8">
       <c r="A608" t="s">
         <v>52</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8">
       <c r="A609" t="s">
         <v>52</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8">
       <c r="A610" t="s">
         <v>52</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8">
       <c r="A611" t="s">
         <v>52</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8">
       <c r="A612" t="s">
         <v>52</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8">
       <c r="A613" t="s">
         <v>52</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8">
       <c r="A614" t="s">
         <v>52</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8">
       <c r="A615" t="s">
         <v>52</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8">
       <c r="A616" t="s">
         <v>52</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8">
       <c r="A617" t="s">
         <v>52</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8">
       <c r="A618" t="s">
         <v>52</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8">
       <c r="A619" t="s">
         <v>52</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8">
       <c r="A620" t="s">
         <v>52</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8">
       <c r="A621" t="s">
         <v>52</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8">
       <c r="A622" t="s">
         <v>52</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8">
       <c r="A623" t="s">
         <v>52</v>
       </c>
@@ -16866,9 +16866,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -17152,13 +17152,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A500" sqref="A500:D525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>52</v>
       </c>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439C6502-6A9C-4F88-893A-4484FF1F0D0C}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487074C9-5C6C-4F0B-912C-0A7AEA618BCD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="90">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -305,6 +305,15 @@
   <si>
     <t>value</t>
   </si>
+  <si>
+    <t>landuse</t>
+  </si>
+  <si>
+    <t>Forested</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,12 +387,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,46 +720,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11" style="5"/>
-    <col min="4" max="4" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5"/>
-    <col min="7" max="7" width="12.09765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="5"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -781,7 +785,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -810,7 +814,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -839,7 +843,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -868,7 +872,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -897,7 +901,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -926,7 +930,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -955,7 +959,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -984,7 +988,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2173,7 +2177,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="69" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="70" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="71" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="72" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="74" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="76" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2927,7 +2931,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="77" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="78" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="79" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="80" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="81" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="82" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="83" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="84" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="86" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="88" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="89" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="90" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="91" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="92" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="93" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="94" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="95" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="96" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="97" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="98" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="99" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="100" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="101" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="102" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="103" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="104" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="105" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="106" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>78</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="107" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="108" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>78</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="109" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="110" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="111" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>78</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="112" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="113" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="114" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="115" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -4058,7 +4062,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="116" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="117" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>78</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="118" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>78</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="119" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="120" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="121" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>78</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="122" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="123" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="124" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>78</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="125" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="126" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="127" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="128" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>78</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="129" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="130" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="131" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="132" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>78</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="133" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>78</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="134" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>78</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="135" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="136" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="137" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>78</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="138" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>78</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="139" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="140" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="141" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="142" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="143" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="144" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>78</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="145" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>78</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="146" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>78</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="147" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>78</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="148" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>78</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="149" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>78</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="150" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>78</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="151" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>78</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="152" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>78</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="153" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -5144,7 +5148,7 @@
       <c r="D153" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F153">
@@ -5160,7 +5164,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>78</v>
       </c>
@@ -5202,7 +5206,7 @@
       <c r="D155" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F155">
@@ -5218,7 +5222,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -5231,7 +5235,7 @@
       <c r="D156" t="s">
         <v>21</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F156">
@@ -5247,7 +5251,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -5260,7 +5264,7 @@
       <c r="D157" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F157">
@@ -5276,7 +5280,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>78</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>78</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>78</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>78</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>78</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>78</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>78</v>
       </c>
@@ -5682,7 +5686,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>78</v>
       </c>
@@ -5711,7 +5715,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>78</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>78</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>78</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>78</v>
       </c>
@@ -5840,7 +5844,7 @@
       <c r="D177" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F177">
@@ -5856,7 +5860,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>78</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>78</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="180" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>78</v>
       </c>
@@ -5943,7 +5947,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="181" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>78</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="182" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>78</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="183" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>78</v>
       </c>
@@ -6030,7 +6034,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="184" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -6043,7 +6047,7 @@
       <c r="D184" t="s">
         <v>23</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F184">
@@ -6059,7 +6063,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="185" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>78</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="186" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>78</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="187" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>78</v>
       </c>
@@ -6130,7 +6134,7 @@
       <c r="D187" t="s">
         <v>32</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F187">
@@ -6146,7 +6150,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="188" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>78</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="189" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>78</v>
       </c>
@@ -6188,7 +6192,7 @@
       <c r="D189" t="s">
         <v>33</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F189">
@@ -6204,7 +6208,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="190" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -6217,7 +6221,7 @@
       <c r="D190" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F190">
@@ -6233,7 +6237,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="191" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>78</v>
       </c>
@@ -6262,7 +6266,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>78</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="193" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>78</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="194" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>78</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="195" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>78</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="196" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>78</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="197" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>78</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="198" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>78</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>78</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="200" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>78</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>78</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="202" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>78</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>78</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="204" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>78</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>78</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="206" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>78</v>
       </c>
@@ -6697,7 +6701,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="207" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>78</v>
       </c>
@@ -6726,7 +6730,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>78</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="209" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>78</v>
       </c>
@@ -6768,7 +6772,7 @@
       <c r="D209" t="s">
         <v>34</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F209">
@@ -6784,7 +6788,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="210" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>78</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="211" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>78</v>
       </c>
@@ -6826,7 +6830,7 @@
       <c r="D211" t="s">
         <v>35</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F211">
@@ -6842,7 +6846,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="212" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -6855,7 +6859,7 @@
       <c r="D212" t="s">
         <v>36</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F212">
@@ -6871,7 +6875,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="213" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>78</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="214" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>78</v>
       </c>
@@ -6913,7 +6917,7 @@
       <c r="D214" t="s">
         <v>23</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F214">
@@ -6929,7 +6933,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="215" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>78</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="216" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="217" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>78</v>
       </c>
@@ -7000,7 +7004,7 @@
       <c r="D217" t="s">
         <v>18</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="E217" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F217">
@@ -7016,7 +7020,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="218" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>78</v>
       </c>
@@ -7029,7 +7033,7 @@
       <c r="D218" t="s">
         <v>10</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F218">
@@ -7045,7 +7049,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="219" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>78</v>
       </c>
@@ -7074,7 +7078,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="220" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>78</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="221" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>78</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="222" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>78</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="223" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>78</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="224" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>78</v>
       </c>
@@ -7219,7 +7223,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="225" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>78</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="226" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>78</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="227" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>78</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="228" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>78</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="229" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>78</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="230" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>78</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="231" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>78</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="232" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -7435,7 +7439,7 @@
       <c r="D232" t="s">
         <v>29</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F232">
@@ -7451,7 +7455,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="233" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>78</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="234" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>78</v>
       </c>
@@ -7493,7 +7497,7 @@
       <c r="D234" t="s">
         <v>37</v>
       </c>
-      <c r="E234" s="8" t="s">
+      <c r="E234" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F234">
@@ -7509,7 +7513,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="235" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>78</v>
       </c>
@@ -7539,731 +7543,731 @@
       </c>
     </row>
     <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B236" s="5" t="s">
+      <c r="A236" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" t="s">
         <v>31</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236">
         <v>5</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236" t="s">
         <v>36</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F236" s="5">
+      <c r="F236">
         <v>3</v>
       </c>
-      <c r="G236" s="5">
+      <c r="G236">
         <v>11.5</v>
       </c>
-      <c r="H236" s="5">
+      <c r="H236">
         <v>3</v>
       </c>
-      <c r="I236" s="5">
+      <c r="I236">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B237" s="5" t="s">
+      <c r="A237" t="s">
+        <v>78</v>
+      </c>
+      <c r="B237" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237">
         <v>5</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" t="s">
         <v>23</v>
       </c>
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F237" s="5">
+      <c r="F237">
         <v>3</v>
       </c>
-      <c r="G237" s="5">
-        <v>7</v>
-      </c>
-      <c r="H237" s="5">
+      <c r="G237">
+        <v>7</v>
+      </c>
+      <c r="H237">
         <v>3</v>
       </c>
-      <c r="I237" s="5">
+      <c r="I237">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B238" s="5" t="s">
+      <c r="A238" t="s">
+        <v>78</v>
+      </c>
+      <c r="B238" t="s">
         <v>31</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238">
         <v>5</v>
       </c>
-      <c r="D238" s="5" t="s">
+      <c r="D238" t="s">
         <v>23</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" t="s">
         <v>13</v>
       </c>
-      <c r="F238" s="5">
+      <c r="F238">
         <v>3</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238">
         <v>5.5</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238">
         <v>3</v>
       </c>
-      <c r="I238" s="5">
+      <c r="I238">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B239" s="5" t="s">
+      <c r="A239" t="s">
+        <v>78</v>
+      </c>
+      <c r="B239" t="s">
         <v>31</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239">
         <v>5</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="D239" t="s">
         <v>30</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F239" s="5">
+      <c r="F239">
         <v>3</v>
       </c>
-      <c r="G239" s="5">
+      <c r="G239">
         <v>7.2</v>
       </c>
-      <c r="H239" s="5">
+      <c r="H239">
         <v>3</v>
       </c>
-      <c r="I239" s="5">
+      <c r="I239">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B240" s="5" t="s">
+      <c r="A240" t="s">
+        <v>78</v>
+      </c>
+      <c r="B240" t="s">
         <v>31</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240">
         <v>5</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" t="s">
         <v>23</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" t="s">
         <v>13</v>
       </c>
-      <c r="F240" s="5">
+      <c r="F240">
         <v>3</v>
       </c>
-      <c r="G240" s="5">
+      <c r="G240">
         <v>4.5</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240">
         <v>3</v>
       </c>
-      <c r="I240" s="5">
+      <c r="I240">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B241" s="5" t="s">
+      <c r="A241" t="s">
+        <v>78</v>
+      </c>
+      <c r="B241" t="s">
         <v>31</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241">
         <v>5</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D241" t="s">
         <v>23</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" t="s">
         <v>13</v>
       </c>
-      <c r="F241" s="5">
+      <c r="F241">
         <v>3</v>
       </c>
-      <c r="G241" s="5">
+      <c r="G241">
         <v>3.2</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241">
         <v>3</v>
       </c>
-      <c r="I241" s="5">
+      <c r="I241">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B242" s="5" t="s">
+      <c r="A242" t="s">
+        <v>78</v>
+      </c>
+      <c r="B242" t="s">
         <v>31</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242">
         <v>5</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D242" t="s">
         <v>32</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F242" s="5">
+      <c r="F242">
         <v>3</v>
       </c>
-      <c r="G242" s="5">
+      <c r="G242">
         <v>5</v>
       </c>
-      <c r="H242" s="5">
+      <c r="H242">
         <v>3</v>
       </c>
-      <c r="I242" s="5">
+      <c r="I242">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B243" s="5" t="s">
+      <c r="A243" t="s">
+        <v>78</v>
+      </c>
+      <c r="B243" t="s">
         <v>31</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243">
         <v>5</v>
       </c>
-      <c r="D243" s="5" t="s">
+      <c r="D243" t="s">
         <v>33</v>
       </c>
-      <c r="E243" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" s="5">
+      <c r="E243" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243">
         <v>3</v>
       </c>
-      <c r="G243" s="5">
+      <c r="G243">
         <v>6</v>
       </c>
-      <c r="H243" s="5">
+      <c r="H243">
         <v>3</v>
       </c>
-      <c r="I243" s="5">
+      <c r="I243">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B244" s="5" t="s">
+      <c r="A244" t="s">
+        <v>78</v>
+      </c>
+      <c r="B244" t="s">
         <v>31</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244">
         <v>5</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="D244" t="s">
         <v>20</v>
       </c>
-      <c r="E244" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" s="5">
+      <c r="E244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244">
         <v>3</v>
       </c>
-      <c r="G244" s="5">
+      <c r="G244">
         <v>6.2</v>
       </c>
-      <c r="H244" s="5">
+      <c r="H244">
         <v>3</v>
       </c>
-      <c r="I244" s="5">
+      <c r="I244">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B245" s="5" t="s">
+      <c r="A245" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245" t="s">
         <v>31</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245">
         <v>5</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245" t="s">
         <v>20</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" s="5">
+      <c r="E245" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245">
         <v>3</v>
       </c>
-      <c r="G245" s="5">
+      <c r="G245">
         <v>5</v>
       </c>
-      <c r="H245" s="5">
+      <c r="H245">
         <v>3</v>
       </c>
-      <c r="I245" s="5">
+      <c r="I245">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B246" s="5" t="s">
+      <c r="A246" t="s">
+        <v>78</v>
+      </c>
+      <c r="B246" t="s">
         <v>31</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246">
         <v>5</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="D246" t="s">
         <v>20</v>
       </c>
-      <c r="E246" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" s="5">
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246">
         <v>3</v>
       </c>
-      <c r="G246" s="5">
+      <c r="G246">
         <v>6</v>
       </c>
-      <c r="H246" s="5">
+      <c r="H246">
         <v>3</v>
       </c>
-      <c r="I246" s="5">
+      <c r="I246">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B247" s="5" t="s">
+      <c r="A247" t="s">
+        <v>78</v>
+      </c>
+      <c r="B247" t="s">
         <v>31</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247">
         <v>5</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247" t="s">
         <v>20</v>
       </c>
-      <c r="E247" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F247" s="5">
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247">
         <v>3</v>
       </c>
-      <c r="G247" s="5">
+      <c r="G247">
         <v>5.5</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247">
         <v>3</v>
       </c>
-      <c r="I247" s="5">
+      <c r="I247">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B248" s="5" t="s">
+      <c r="A248" t="s">
+        <v>78</v>
+      </c>
+      <c r="B248" t="s">
         <v>31</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248">
         <v>5</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="D248" t="s">
         <v>20</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F248" s="5">
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248">
         <v>3</v>
       </c>
-      <c r="G248" s="5">
+      <c r="G248">
         <v>5</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248">
         <v>3</v>
       </c>
-      <c r="I248" s="5">
+      <c r="I248">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B249" s="5" t="s">
+      <c r="A249" t="s">
+        <v>78</v>
+      </c>
+      <c r="B249" t="s">
         <v>31</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249">
         <v>5</v>
       </c>
-      <c r="D249" s="5" t="s">
+      <c r="D249" t="s">
         <v>20</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F249" s="5">
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249">
         <v>3</v>
       </c>
-      <c r="G249" s="5">
+      <c r="G249">
         <v>8</v>
       </c>
-      <c r="H249" s="5">
+      <c r="H249">
         <v>3</v>
       </c>
-      <c r="I249" s="5">
+      <c r="I249">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B250" s="5" t="s">
+      <c r="A250" t="s">
+        <v>78</v>
+      </c>
+      <c r="B250" t="s">
         <v>31</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250">
         <v>5</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="D250" t="s">
         <v>20</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F250" s="5">
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250">
         <v>3</v>
       </c>
-      <c r="G250" s="5">
+      <c r="G250">
         <v>6</v>
       </c>
-      <c r="H250" s="5">
+      <c r="H250">
         <v>3</v>
       </c>
-      <c r="I250" s="5">
+      <c r="I250">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B251" s="5" t="s">
+      <c r="A251" t="s">
+        <v>78</v>
+      </c>
+      <c r="B251" t="s">
         <v>31</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251">
         <v>5</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="D251" t="s">
         <v>20</v>
       </c>
-      <c r="E251" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F251" s="5">
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251">
         <v>3</v>
       </c>
-      <c r="G251" s="5">
+      <c r="G251">
         <v>6</v>
       </c>
-      <c r="H251" s="5">
+      <c r="H251">
         <v>3</v>
       </c>
-      <c r="I251" s="5">
+      <c r="I251">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B252" s="5" t="s">
+      <c r="A252" t="s">
+        <v>78</v>
+      </c>
+      <c r="B252" t="s">
         <v>31</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252">
         <v>5</v>
       </c>
-      <c r="D252" s="5" t="s">
+      <c r="D252" t="s">
         <v>20</v>
       </c>
-      <c r="E252" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F252" s="5">
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252">
         <v>3</v>
       </c>
-      <c r="G252" s="5">
+      <c r="G252">
         <v>6.5</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252">
         <v>3</v>
       </c>
-      <c r="I252" s="5">
+      <c r="I252">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B253" s="5" t="s">
+      <c r="A253" t="s">
+        <v>78</v>
+      </c>
+      <c r="B253" t="s">
         <v>31</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253">
         <v>5</v>
       </c>
-      <c r="D253" s="5" t="s">
+      <c r="D253" t="s">
         <v>20</v>
       </c>
-      <c r="E253" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="5">
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253">
         <v>3</v>
       </c>
-      <c r="G253" s="5">
+      <c r="G253">
         <v>6</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253">
         <v>3</v>
       </c>
-      <c r="I253" s="5">
+      <c r="I253">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B254" s="5" t="s">
+      <c r="A254" t="s">
+        <v>78</v>
+      </c>
+      <c r="B254" t="s">
         <v>31</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254">
         <v>5</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D254" t="s">
         <v>20</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F254" s="5">
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254">
         <v>3</v>
       </c>
-      <c r="G254" s="5">
-        <v>7</v>
-      </c>
-      <c r="H254" s="5">
+      <c r="G254">
+        <v>7</v>
+      </c>
+      <c r="H254">
         <v>3</v>
       </c>
-      <c r="I254" s="5">
+      <c r="I254">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B255" s="5" t="s">
+      <c r="A255" t="s">
+        <v>78</v>
+      </c>
+      <c r="B255" t="s">
         <v>31</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255">
         <v>5</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255" t="s">
         <v>20</v>
       </c>
-      <c r="E255" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F255" s="5">
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255">
         <v>3</v>
       </c>
-      <c r="G255" s="5">
+      <c r="G255">
         <v>6</v>
       </c>
-      <c r="H255" s="5">
+      <c r="H255">
         <v>3</v>
       </c>
-      <c r="I255" s="5">
+      <c r="I255">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B256" s="5" t="s">
+      <c r="A256" t="s">
+        <v>78</v>
+      </c>
+      <c r="B256" t="s">
         <v>31</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256">
         <v>5</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D256" t="s">
         <v>20</v>
       </c>
-      <c r="E256" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F256" s="5">
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256">
         <v>3</v>
       </c>
-      <c r="G256" s="5">
+      <c r="G256">
         <v>6</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256">
         <v>3</v>
       </c>
-      <c r="I256" s="5">
+      <c r="I256">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B257" s="5" t="s">
+      <c r="A257" t="s">
+        <v>78</v>
+      </c>
+      <c r="B257" t="s">
         <v>31</v>
       </c>
-      <c r="C257" s="5">
+      <c r="C257">
         <v>5</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" t="s">
         <v>20</v>
       </c>
-      <c r="E257" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F257" s="5">
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257">
         <v>3</v>
       </c>
-      <c r="G257" s="5">
+      <c r="G257">
         <v>6.5</v>
       </c>
-      <c r="H257" s="5">
+      <c r="H257">
         <v>3</v>
       </c>
-      <c r="I257" s="5">
+      <c r="I257">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B258" s="5" t="s">
+      <c r="A258" t="s">
+        <v>78</v>
+      </c>
+      <c r="B258" t="s">
         <v>31</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258">
         <v>5</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D258" t="s">
         <v>20</v>
       </c>
-      <c r="E258" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F258" s="5">
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258">
         <v>3</v>
       </c>
-      <c r="G258" s="5">
-        <v>7</v>
-      </c>
-      <c r="H258" s="5">
+      <c r="G258">
+        <v>7</v>
+      </c>
+      <c r="H258">
         <v>3</v>
       </c>
-      <c r="I258" s="5">
+      <c r="I258">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B259" s="5" t="s">
+      <c r="A259" t="s">
+        <v>78</v>
+      </c>
+      <c r="B259" t="s">
         <v>31</v>
       </c>
-      <c r="C259" s="5">
+      <c r="C259">
         <v>5</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" t="s">
         <v>20</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F259" s="5">
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259">
         <v>3</v>
       </c>
-      <c r="G259" s="5">
-        <v>7</v>
-      </c>
-      <c r="H259" s="5">
+      <c r="G259">
+        <v>7</v>
+      </c>
+      <c r="H259">
         <v>3</v>
       </c>
-      <c r="I259" s="5">
+      <c r="I259">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B260" s="5" t="s">
+      <c r="A260" t="s">
+        <v>78</v>
+      </c>
+      <c r="B260" t="s">
         <v>31</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260">
         <v>5</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260" t="s">
         <v>20</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F260" s="5">
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260">
         <v>3</v>
       </c>
-      <c r="G260" s="5">
+      <c r="G260">
         <v>6</v>
       </c>
-      <c r="H260" s="5">
+      <c r="H260">
         <v>3</v>
       </c>
-      <c r="I260" s="5">
+      <c r="I260">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>78</v>
       </c>
@@ -8276,7 +8280,7 @@
       <c r="D261" t="s">
         <v>20</v>
       </c>
-      <c r="E261" s="8" t="s">
+      <c r="E261" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F261">
@@ -8292,7 +8296,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>78</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>78</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>78</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>78</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>78</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>78</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>78</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>78</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>78</v>
       </c>
@@ -8553,7 +8557,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>78</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>78</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>78</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>78</v>
       </c>
@@ -8653,7 +8657,7 @@
       <c r="D274" t="s">
         <v>33</v>
       </c>
-      <c r="E274" s="9" t="s">
+      <c r="E274" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F274">
@@ -8669,7 +8673,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>78</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>78</v>
       </c>
@@ -8711,7 +8715,7 @@
       <c r="D276" t="s">
         <v>23</v>
       </c>
-      <c r="E276" s="8" t="s">
+      <c r="E276" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F276">
@@ -8727,7 +8731,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>78</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>78</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>78</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>78</v>
       </c>
@@ -8827,7 +8831,7 @@
       <c r="D280" t="s">
         <v>38</v>
       </c>
-      <c r="E280" s="8" t="s">
+      <c r="E280" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F280">
@@ -8843,7 +8847,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>78</v>
       </c>
@@ -8856,7 +8860,7 @@
       <c r="D281" t="s">
         <v>16</v>
       </c>
-      <c r="E281" s="8" t="s">
+      <c r="E281" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F281">
@@ -8872,7 +8876,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>78</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>78</v>
       </c>
@@ -8914,7 +8918,7 @@
       <c r="D283" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E283" s="8" t="s">
+      <c r="E283" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F283">
@@ -8930,7 +8934,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>78</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>78</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>78</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -9059,7 +9063,7 @@
       <c r="D288" t="s">
         <v>33</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="E288" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F288">
@@ -9075,7 +9079,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>78</v>
       </c>
@@ -9088,7 +9092,7 @@
       <c r="D289" t="s">
         <v>39</v>
       </c>
-      <c r="E289" s="8" t="s">
+      <c r="E289" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F289">
@@ -9104,7 +9108,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>78</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="291" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>78</v>
       </c>
@@ -9146,7 +9150,7 @@
       <c r="D291" t="s">
         <v>16</v>
       </c>
-      <c r="E291" s="8" t="s">
+      <c r="E291" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F291">
@@ -9162,7 +9166,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="292" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>78</v>
       </c>
@@ -9175,7 +9179,7 @@
       <c r="D292" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F292">
@@ -9191,7 +9195,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="293" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>78</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="294" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>78</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="295" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>78</v>
       </c>
@@ -9262,7 +9266,7 @@
       <c r="D295" t="s">
         <v>33</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E295" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F295">
@@ -9278,7 +9282,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="296" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>78</v>
       </c>
@@ -9291,7 +9295,7 @@
       <c r="D296" t="s">
         <v>20</v>
       </c>
-      <c r="E296" s="8" t="s">
+      <c r="E296" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F296">
@@ -9307,7 +9311,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="297" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>78</v>
       </c>
@@ -9336,7 +9340,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="298" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>78</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="299" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>78</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="300" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>78</v>
       </c>
@@ -9423,7 +9427,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="301" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>78</v>
       </c>
@@ -9452,7 +9456,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -9481,7 +9485,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="303" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>78</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="304" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>79</v>
       </c>
@@ -9523,7 +9527,7 @@
       <c r="D304" t="s">
         <v>41</v>
       </c>
-      <c r="E304" s="8" t="s">
+      <c r="E304" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F304">
@@ -9539,7 +9543,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>79</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>79</v>
       </c>
@@ -9597,7 +9601,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="307" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>79</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="308" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -9655,7 +9659,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="309" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>79</v>
       </c>
@@ -9684,7 +9688,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>79</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>79</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>79</v>
       </c>
@@ -9771,7 +9775,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -9800,7 +9804,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>79</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>79</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="316" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>79</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>79</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>79</v>
       </c>
@@ -9945,7 +9949,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>79</v>
       </c>
@@ -9974,7 +9978,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>79</v>
       </c>
@@ -10003,7 +10007,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="322" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>79</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>79</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="324" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="325" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>79</v>
       </c>
@@ -10148,7 +10152,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>79</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="330" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>79</v>
       </c>
@@ -10293,7 +10297,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>79</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="332" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="333" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>79</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="335" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>79</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="336" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>79</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>79</v>
       </c>
@@ -10496,7 +10500,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>79</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>79</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>79</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>79</v>
       </c>
@@ -10612,7 +10616,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>79</v>
       </c>
@@ -10641,7 +10645,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>79</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>79</v>
       </c>
@@ -10699,7 +10703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>79</v>
       </c>
@@ -10728,7 +10732,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>79</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>79</v>
       </c>
@@ -10770,7 +10774,7 @@
       <c r="D347" t="s">
         <v>39</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F347">
@@ -10786,7 +10790,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>79</v>
       </c>
@@ -10815,7 +10819,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="349" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>79</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -10873,7 +10877,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>79</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>79</v>
       </c>
@@ -10931,7 +10935,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>79</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>79</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>79</v>
       </c>
@@ -11002,7 +11006,7 @@
       <c r="D355" t="s">
         <v>42</v>
       </c>
-      <c r="E355" s="8" t="s">
+      <c r="E355" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F355">
@@ -11018,7 +11022,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>79</v>
       </c>
@@ -11047,7 +11051,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -11105,7 +11109,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -11134,7 +11138,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="360" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="362" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -11221,7 +11225,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>79</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>79</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>79</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="366" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>79</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="367" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>79</v>
       </c>
@@ -11366,7 +11370,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="368" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>79</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>79</v>
       </c>
@@ -11424,7 +11428,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>79</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>79</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>79</v>
       </c>
@@ -11495,7 +11499,7 @@
       <c r="D372" t="s">
         <v>23</v>
       </c>
-      <c r="E372" s="9" t="s">
+      <c r="E372" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F372">
@@ -11511,7 +11515,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -11524,7 +11528,7 @@
       <c r="D373" t="s">
         <v>44</v>
       </c>
-      <c r="E373" s="8" t="s">
+      <c r="E373" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F373">
@@ -11540,7 +11544,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="374" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>79</v>
       </c>
@@ -11569,7 +11573,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="375" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>79</v>
       </c>
@@ -11598,7 +11602,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>79</v>
       </c>
@@ -11627,7 +11631,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="377" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>79</v>
       </c>
@@ -11640,7 +11644,7 @@
       <c r="D377" t="s">
         <v>42</v>
       </c>
-      <c r="E377" s="8" t="s">
+      <c r="E377" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F377">
@@ -11656,7 +11660,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>79</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>79</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -11743,7 +11747,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>79</v>
       </c>
@@ -11772,7 +11776,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>79</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>79</v>
       </c>
@@ -11843,7 +11847,7 @@
       <c r="D384" t="s">
         <v>39</v>
       </c>
-      <c r="E384" s="8" t="s">
+      <c r="E384" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F384">
@@ -11859,7 +11863,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="385" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>79</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="386" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>79</v>
       </c>
@@ -11901,7 +11905,7 @@
       <c r="D386" t="s">
         <v>41</v>
       </c>
-      <c r="E386" s="8" t="s">
+      <c r="E386" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F386">
@@ -11917,7 +11921,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="387" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>79</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="388" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>79</v>
       </c>
@@ -11975,7 +11979,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="389" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>79</v>
       </c>
@@ -12004,7 +12008,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="390" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="391" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>79</v>
       </c>
@@ -12062,7 +12066,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="392" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>79</v>
       </c>
@@ -12091,7 +12095,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="393" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>79</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="394" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>79</v>
       </c>
@@ -12149,7 +12153,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="395" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>79</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="396" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>79</v>
       </c>
@@ -12207,7 +12211,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="397" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>79</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="398" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>79</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="399" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>79</v>
       </c>
@@ -12294,7 +12298,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="400" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="401" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>79</v>
       </c>
@@ -12352,7 +12356,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="402" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>79</v>
       </c>
@@ -12381,7 +12385,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="403" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>79</v>
       </c>
@@ -12410,7 +12414,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="404" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>79</v>
       </c>
@@ -12439,7 +12443,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="405" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>79</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="406" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>79</v>
       </c>
@@ -12497,7 +12501,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="407" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>79</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="408" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>79</v>
       </c>
@@ -12555,7 +12559,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="409" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>79</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="410" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>79</v>
       </c>
@@ -12613,7 +12617,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="411" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>79</v>
       </c>
@@ -12642,7 +12646,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>79</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="413" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>79</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="414" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>79</v>
       </c>
@@ -12729,7 +12733,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="415" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>79</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="416" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>79</v>
       </c>
@@ -12787,7 +12791,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="417" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>79</v>
       </c>
@@ -12816,7 +12820,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="418" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>79</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="419" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>79</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="420" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>79</v>
       </c>
@@ -12903,7 +12907,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="421" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -12932,7 +12936,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="422" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>79</v>
       </c>
@@ -12961,7 +12965,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="423" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>79</v>
       </c>
@@ -12990,7 +12994,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="424" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>79</v>
       </c>
@@ -13019,7 +13023,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="425" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>79</v>
       </c>
@@ -13048,7 +13052,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="426" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>79</v>
       </c>
@@ -13077,7 +13081,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="427" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>79</v>
       </c>
@@ -13106,7 +13110,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="428" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>79</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="429" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -13164,7 +13168,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="430" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>79</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="431" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>79</v>
       </c>
@@ -13222,7 +13226,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="432" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>79</v>
       </c>
@@ -13251,7 +13255,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>79</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="434" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>79</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="435" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>79</v>
       </c>
@@ -13338,7 +13342,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="436" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -13367,7 +13371,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="437" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>79</v>
       </c>
@@ -13396,7 +13400,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="438" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>79</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="439" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>79</v>
       </c>
@@ -13454,7 +13458,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="440" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>79</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="441" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>79</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="442" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>79</v>
       </c>
@@ -13541,7 +13545,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="443" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>79</v>
       </c>
@@ -13570,7 +13574,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="444" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>79</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="445" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>79</v>
       </c>
@@ -13628,7 +13632,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="446" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>79</v>
       </c>
@@ -13657,7 +13661,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="447" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>79</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="448" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="449" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -13744,7 +13748,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="450" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>79</v>
       </c>
@@ -13773,7 +13777,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="451" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>79</v>
       </c>
@@ -13802,7 +13806,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="452" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>79</v>
       </c>
@@ -13831,7 +13835,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="453" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>79</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="454" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>79</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="455" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>79</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="456" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>79</v>
       </c>
@@ -13947,7 +13951,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="457" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -13960,7 +13964,7 @@
       <c r="D457" t="s">
         <v>15</v>
       </c>
-      <c r="E457" s="8" t="s">
+      <c r="E457" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F457">
@@ -13976,7 +13980,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="458" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -13989,7 +13993,7 @@
       <c r="D458" t="s">
         <v>42</v>
       </c>
-      <c r="E458" s="8" t="s">
+      <c r="E458" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F458">
@@ -14005,7 +14009,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="459" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>79</v>
       </c>
@@ -14034,7 +14038,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="460" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>79</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="461" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>79</v>
       </c>
@@ -14076,7 +14080,7 @@
       <c r="D461" t="s">
         <v>45</v>
       </c>
-      <c r="E461" s="8" t="s">
+      <c r="E461" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F461">
@@ -14092,7 +14096,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="462" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>79</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>79</v>
       </c>
@@ -14134,7 +14138,7 @@
       <c r="D463" t="s">
         <v>39</v>
       </c>
-      <c r="E463" s="8" t="s">
+      <c r="E463" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F463">
@@ -14150,7 +14154,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="464" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -14179,7 +14183,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>79</v>
       </c>
@@ -14192,7 +14196,7 @@
       <c r="D465" t="s">
         <v>46</v>
       </c>
-      <c r="E465" s="8" t="s">
+      <c r="E465" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F465">
@@ -14208,7 +14212,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>79</v>
       </c>
@@ -14237,7 +14241,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -14250,7 +14254,7 @@
       <c r="D467" t="s">
         <v>42</v>
       </c>
-      <c r="E467" s="8" t="s">
+      <c r="E467" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F467">
@@ -14266,7 +14270,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>79</v>
       </c>
@@ -14295,7 +14299,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -14324,7 +14328,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>79</v>
       </c>
@@ -14337,7 +14341,7 @@
       <c r="D470" t="s">
         <v>42</v>
       </c>
-      <c r="E470" s="8" t="s">
+      <c r="E470" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F470">
@@ -14353,7 +14357,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>79</v>
       </c>
@@ -14366,7 +14370,7 @@
       <c r="D471" t="s">
         <v>46</v>
       </c>
-      <c r="E471" s="8" t="s">
+      <c r="E471" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F471">
@@ -14382,7 +14386,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -14395,7 +14399,7 @@
       <c r="D472" t="s">
         <v>47</v>
       </c>
-      <c r="E472" s="8" t="s">
+      <c r="E472" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F472">
@@ -14411,7 +14415,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>79</v>
       </c>
@@ -14424,7 +14428,7 @@
       <c r="D473" t="s">
         <v>39</v>
       </c>
-      <c r="E473" s="8" t="s">
+      <c r="E473" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F473">
@@ -14440,7 +14444,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -14453,7 +14457,7 @@
       <c r="D474" t="s">
         <v>42</v>
       </c>
-      <c r="E474" s="8" t="s">
+      <c r="E474" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F474">
@@ -14469,7 +14473,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>79</v>
       </c>
@@ -14498,7 +14502,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>79</v>
       </c>
@@ -14527,7 +14531,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>79</v>
       </c>
@@ -14556,7 +14560,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>79</v>
       </c>
@@ -14585,7 +14589,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>79</v>
       </c>
@@ -14614,7 +14618,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>79</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>79</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>79</v>
       </c>
@@ -14685,7 +14689,7 @@
       <c r="D482" t="s">
         <v>44</v>
       </c>
-      <c r="E482" s="8" t="s">
+      <c r="E482" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F482">
@@ -14701,7 +14705,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>79</v>
       </c>
@@ -14714,7 +14718,7 @@
       <c r="D483" t="s">
         <v>42</v>
       </c>
-      <c r="E483" s="8" t="s">
+      <c r="E483" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F483">
@@ -14730,7 +14734,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>79</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>79</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>79</v>
       </c>
@@ -14817,7 +14821,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>79</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>79</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>79</v>
       </c>
@@ -14904,7 +14908,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>79</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>79</v>
       </c>
@@ -14946,7 +14950,7 @@
       <c r="D491" t="s">
         <v>49</v>
       </c>
-      <c r="E491" s="8" t="s">
+      <c r="E491" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F491">
@@ -14962,7 +14966,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>79</v>
       </c>
@@ -14975,7 +14979,7 @@
       <c r="D492" t="s">
         <v>47</v>
       </c>
-      <c r="E492" s="8" t="s">
+      <c r="E492" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F492">
@@ -14991,7 +14995,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>79</v>
       </c>
@@ -15020,7 +15024,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>79</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="495" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>79</v>
       </c>
@@ -15078,7 +15082,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="496" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>79</v>
       </c>
@@ -15091,7 +15095,7 @@
       <c r="D496" t="s">
         <v>15</v>
       </c>
-      <c r="E496" s="8" t="s">
+      <c r="E496" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F496">
@@ -15107,7 +15111,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>79</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>79</v>
       </c>
@@ -15165,7 +15169,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>79</v>
       </c>
@@ -15194,7 +15198,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>79</v>
       </c>
@@ -15223,7 +15227,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>79</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>79</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>79</v>
       </c>
@@ -15310,7 +15314,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>79</v>
       </c>
@@ -15339,7 +15343,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>79</v>
       </c>
@@ -15368,7 +15372,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="506" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>79</v>
       </c>
@@ -15381,7 +15385,7 @@
       <c r="D506" t="s">
         <v>56</v>
       </c>
-      <c r="E506" s="5" t="s">
+      <c r="E506" t="s">
         <v>13</v>
       </c>
       <c r="F506">
@@ -15397,7 +15401,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>79</v>
       </c>
@@ -15410,7 +15414,7 @@
       <c r="D507" t="s">
         <v>56</v>
       </c>
-      <c r="E507" s="5" t="s">
+      <c r="E507" t="s">
         <v>13</v>
       </c>
       <c r="F507">
@@ -15426,7 +15430,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>79</v>
       </c>
@@ -15439,7 +15443,7 @@
       <c r="D508" t="s">
         <v>57</v>
       </c>
-      <c r="E508" s="5" t="s">
+      <c r="E508" t="s">
         <v>11</v>
       </c>
       <c r="F508">
@@ -15455,7 +15459,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>79</v>
       </c>
@@ -15468,7 +15472,7 @@
       <c r="D509" t="s">
         <v>42</v>
       </c>
-      <c r="E509" s="5" t="s">
+      <c r="E509" t="s">
         <v>11</v>
       </c>
       <c r="F509">
@@ -15484,7 +15488,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>79</v>
       </c>
@@ -15497,7 +15501,7 @@
       <c r="D510" t="s">
         <v>42</v>
       </c>
-      <c r="E510" s="5" t="s">
+      <c r="E510" t="s">
         <v>11</v>
       </c>
       <c r="F510">
@@ -15513,7 +15517,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>79</v>
       </c>
@@ -15526,7 +15530,7 @@
       <c r="D511" t="s">
         <v>42</v>
       </c>
-      <c r="E511" s="5" t="s">
+      <c r="E511" t="s">
         <v>11</v>
       </c>
       <c r="F511">
@@ -15542,7 +15546,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>79</v>
       </c>
@@ -15555,7 +15559,7 @@
       <c r="D512" t="s">
         <v>42</v>
       </c>
-      <c r="E512" s="5" t="s">
+      <c r="E512" t="s">
         <v>11</v>
       </c>
       <c r="F512">
@@ -15571,7 +15575,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>79</v>
       </c>
@@ -15584,7 +15588,7 @@
       <c r="D513" t="s">
         <v>58</v>
       </c>
-      <c r="E513" s="5" t="s">
+      <c r="E513" t="s">
         <v>9</v>
       </c>
       <c r="F513">
@@ -15600,7 +15604,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>79</v>
       </c>
@@ -15613,7 +15617,7 @@
       <c r="D514" t="s">
         <v>47</v>
       </c>
-      <c r="E514" s="5" t="s">
+      <c r="E514" t="s">
         <v>11</v>
       </c>
       <c r="F514">
@@ -15629,7 +15633,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>79</v>
       </c>
@@ -15642,7 +15646,7 @@
       <c r="D515" t="s">
         <v>47</v>
       </c>
-      <c r="E515" s="5" t="s">
+      <c r="E515" t="s">
         <v>11</v>
       </c>
       <c r="F515">
@@ -15658,7 +15662,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>79</v>
       </c>
@@ -15671,7 +15675,7 @@
       <c r="D516" t="s">
         <v>47</v>
       </c>
-      <c r="E516" s="5" t="s">
+      <c r="E516" t="s">
         <v>11</v>
       </c>
       <c r="F516">
@@ -15687,7 +15691,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>79</v>
       </c>
@@ -15700,7 +15704,7 @@
       <c r="D517" t="s">
         <v>47</v>
       </c>
-      <c r="E517" s="5" t="s">
+      <c r="E517" t="s">
         <v>11</v>
       </c>
       <c r="F517">
@@ -15716,7 +15720,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>79</v>
       </c>
@@ -15729,7 +15733,7 @@
       <c r="D518" t="s">
         <v>47</v>
       </c>
-      <c r="E518" s="5" t="s">
+      <c r="E518" t="s">
         <v>11</v>
       </c>
       <c r="F518">
@@ -15745,7 +15749,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="519" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>79</v>
       </c>
@@ -15758,7 +15762,7 @@
       <c r="D519" t="s">
         <v>59</v>
       </c>
-      <c r="E519" s="5" t="s">
+      <c r="E519" t="s">
         <v>13</v>
       </c>
       <c r="F519">
@@ -15774,7 +15778,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>79</v>
       </c>
@@ -15787,7 +15791,7 @@
       <c r="D520" t="s">
         <v>39</v>
       </c>
-      <c r="E520" s="5" t="s">
+      <c r="E520" t="s">
         <v>11</v>
       </c>
       <c r="F520">
@@ -15803,7 +15807,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>79</v>
       </c>
@@ -15816,7 +15820,7 @@
       <c r="D521" t="s">
         <v>39</v>
       </c>
-      <c r="E521" s="5" t="s">
+      <c r="E521" t="s">
         <v>11</v>
       </c>
       <c r="F521">
@@ -15832,7 +15836,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="522" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>79</v>
       </c>
@@ -15845,7 +15849,7 @@
       <c r="D522" t="s">
         <v>39</v>
       </c>
-      <c r="E522" s="5" t="s">
+      <c r="E522" t="s">
         <v>11</v>
       </c>
       <c r="F522">
@@ -15861,7 +15865,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="523" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>79</v>
       </c>
@@ -15874,7 +15878,7 @@
       <c r="D523" t="s">
         <v>53</v>
       </c>
-      <c r="E523" s="5" t="s">
+      <c r="E523" t="s">
         <v>13</v>
       </c>
       <c r="F523">
@@ -15890,7 +15894,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="524" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>79</v>
       </c>
@@ -15903,7 +15907,7 @@
       <c r="D524" t="s">
         <v>53</v>
       </c>
-      <c r="E524" s="5" t="s">
+      <c r="E524" t="s">
         <v>13</v>
       </c>
       <c r="F524">
@@ -15919,7 +15923,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="525" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>79</v>
       </c>
@@ -15932,7 +15936,7 @@
       <c r="D525" t="s">
         <v>53</v>
       </c>
-      <c r="E525" s="5" t="s">
+      <c r="E525" t="s">
         <v>13</v>
       </c>
       <c r="F525">
@@ -15948,7 +15952,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="526" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>79</v>
       </c>
@@ -15961,7 +15965,7 @@
       <c r="D526" t="s">
         <v>53</v>
       </c>
-      <c r="E526" s="5" t="s">
+      <c r="E526" t="s">
         <v>13</v>
       </c>
       <c r="F526">
@@ -15977,7 +15981,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>79</v>
       </c>
@@ -15990,7 +15994,7 @@
       <c r="D527" t="s">
         <v>53</v>
       </c>
-      <c r="E527" s="5" t="s">
+      <c r="E527" t="s">
         <v>13</v>
       </c>
       <c r="F527">
@@ -16006,7 +16010,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>79</v>
       </c>
@@ -16019,7 +16023,7 @@
       <c r="D528" t="s">
         <v>47</v>
       </c>
-      <c r="E528" s="7" t="s">
+      <c r="E528" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F528">
@@ -16035,7 +16039,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>79</v>
       </c>
@@ -16064,7 +16068,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>79</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>79</v>
       </c>
@@ -16122,7 +16126,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>79</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>79</v>
       </c>
@@ -16164,7 +16168,7 @@
       <c r="D533" t="s">
         <v>42</v>
       </c>
-      <c r="E533" s="7" t="s">
+      <c r="E533" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F533">
@@ -16180,7 +16184,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>79</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>79</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>79</v>
       </c>
@@ -16267,7 +16271,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>79</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>79</v>
       </c>
@@ -16325,7 +16329,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>79</v>
       </c>
@@ -16354,7 +16358,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>79</v>
       </c>
@@ -16367,7 +16371,7 @@
       <c r="D540" t="s">
         <v>57</v>
       </c>
-      <c r="E540" s="7" t="s">
+      <c r="E540" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F540">
@@ -16383,7 +16387,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>79</v>
       </c>
@@ -16396,7 +16400,7 @@
       <c r="D541" t="s">
         <v>49</v>
       </c>
-      <c r="E541" s="7" t="s">
+      <c r="E541" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F541">
@@ -16412,7 +16416,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>79</v>
       </c>
@@ -16425,7 +16429,7 @@
       <c r="D542" t="s">
         <v>60</v>
       </c>
-      <c r="E542" s="7" t="s">
+      <c r="E542" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F542">
@@ -16441,7 +16445,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="543" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>79</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="544" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>79</v>
       </c>
@@ -16483,7 +16487,7 @@
       <c r="D544" t="s">
         <v>39</v>
       </c>
-      <c r="E544" s="7" t="s">
+      <c r="E544" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F544">
@@ -16499,7 +16503,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="545" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>79</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>79</v>
       </c>
@@ -16557,7 +16561,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="547" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>79</v>
       </c>
@@ -16586,7 +16590,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="548" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>79</v>
       </c>
@@ -16615,7 +16619,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="549" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>79</v>
       </c>
@@ -16644,7 +16648,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="550" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>79</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="551" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>79</v>
       </c>
@@ -16702,7 +16706,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="552" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>79</v>
       </c>
@@ -16731,7 +16735,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="553" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>79</v>
       </c>
@@ -16760,7 +16764,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="554" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>79</v>
       </c>
@@ -16789,7 +16793,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="555" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>79</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="556" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>79</v>
       </c>
@@ -16847,7 +16851,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="557" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>79</v>
       </c>
@@ -16876,7 +16880,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="558" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>79</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="559" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>79</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="560" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>79</v>
       </c>
@@ -16963,7 +16967,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>79</v>
       </c>
@@ -17021,7 +17025,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>79</v>
       </c>
@@ -17050,7 +17054,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>79</v>
       </c>
@@ -17079,7 +17083,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -17108,7 +17112,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>79</v>
       </c>
@@ -17137,7 +17141,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>79</v>
       </c>
@@ -17166,7 +17170,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -17195,7 +17199,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>79</v>
       </c>
@@ -17224,7 +17228,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>79</v>
       </c>
@@ -17253,7 +17257,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -17282,7 +17286,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>79</v>
       </c>
@@ -17311,7 +17315,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>79</v>
       </c>
@@ -17340,7 +17344,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>79</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>79</v>
       </c>
@@ -17398,7 +17402,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>79</v>
       </c>
@@ -17427,7 +17431,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>79</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -17485,7 +17489,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>79</v>
       </c>
@@ -17514,7 +17518,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>79</v>
       </c>
@@ -17543,7 +17547,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>79</v>
       </c>
@@ -17572,7 +17576,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>79</v>
       </c>
@@ -17601,7 +17605,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>79</v>
       </c>
@@ -17630,7 +17634,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>79</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>79</v>
       </c>
@@ -17688,7 +17692,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>79</v>
       </c>
@@ -17717,7 +17721,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>79</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>79</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>79</v>
       </c>
@@ -17804,7 +17808,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>79</v>
       </c>
@@ -17833,7 +17837,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>79</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="592" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -17891,7 +17895,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>79</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>79</v>
       </c>
@@ -17933,7 +17937,7 @@
       <c r="D594" t="s">
         <v>42</v>
       </c>
-      <c r="E594" s="6" t="s">
+      <c r="E594" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F594">
@@ -17949,7 +17953,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>79</v>
       </c>
@@ -17978,7 +17982,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>79</v>
       </c>
@@ -17991,7 +17995,7 @@
       <c r="D596" t="s">
         <v>56</v>
       </c>
-      <c r="E596" s="7" t="s">
+      <c r="E596" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F596">
@@ -18007,7 +18011,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="597" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>79</v>
       </c>
@@ -18020,7 +18024,7 @@
       <c r="D597" t="s">
         <v>48</v>
       </c>
-      <c r="E597" s="6" t="s">
+      <c r="E597" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F597">
@@ -18036,7 +18040,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="598" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>79</v>
       </c>
@@ -18065,7 +18069,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="599" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>79</v>
       </c>
@@ -18094,7 +18098,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>79</v>
       </c>
@@ -18107,7 +18111,7 @@
       <c r="D600" t="s">
         <v>47</v>
       </c>
-      <c r="E600" s="6" t="s">
+      <c r="E600" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F600">
@@ -18123,7 +18127,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>79</v>
       </c>
@@ -18152,7 +18156,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>79</v>
       </c>
@@ -18165,7 +18169,7 @@
       <c r="D602" t="s">
         <v>39</v>
       </c>
-      <c r="E602" s="6" t="s">
+      <c r="E602" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F602">
@@ -18181,7 +18185,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>79</v>
       </c>
@@ -18210,7 +18214,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>79</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>79</v>
       </c>
@@ -18268,7 +18272,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>79</v>
       </c>
@@ -18297,7 +18301,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>79</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>79</v>
       </c>
@@ -18355,7 +18359,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>79</v>
       </c>
@@ -18384,7 +18388,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>79</v>
       </c>
@@ -18413,7 +18417,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>79</v>
       </c>
@@ -18442,7 +18446,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>79</v>
       </c>
@@ -18471,7 +18475,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>79</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>79</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>79</v>
       </c>
@@ -18558,7 +18562,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>79</v>
       </c>
@@ -18587,7 +18591,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>79</v>
       </c>
@@ -18616,7 +18620,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>79</v>
       </c>
@@ -18645,7 +18649,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>79</v>
       </c>
@@ -18674,7 +18678,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>79</v>
       </c>
@@ -18703,7 +18707,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>79</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -18761,7 +18765,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -18774,7 +18778,7 @@
       <c r="D623" t="s">
         <v>60</v>
       </c>
-      <c r="E623" s="7" t="s">
+      <c r="E623" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F623">
@@ -18809,7 +18813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B45412-D001-4825-B8F3-AE60A1DF844E}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:Q17"/>
@@ -20287,32 +20291,18 @@
       </c>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-    </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20321,198 +20311,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C8EEC3-FEEE-42C0-AABE-BBC01FE2FDD8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>19.444444444444446</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>38.888888888888893</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30.555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>54.761904761904766</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.6315789473684212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>26.315789473684216</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>26.315789473684216</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>44.736842105263158</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>7.4074074074074066</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>14.814814814814813</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>74.074074074074076</v>
       </c>
     </row>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487074C9-5C6C-4F0B-912C-0A7AEA618BCD}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C817938-A088-49CE-8621-49CE463E20C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="FFG" sheetId="7" r:id="rId3"/>
-    <sheet name="Phys" sheetId="3" r:id="rId4"/>
-    <sheet name="Depth" sheetId="4" r:id="rId5"/>
+    <sheet name="FFG_abundance" sheetId="8" r:id="rId4"/>
+    <sheet name="Phys" sheetId="3" r:id="rId5"/>
+    <sheet name="Depth" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Macros!$A$1:$I$623</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="92">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -314,6 +315,12 @@
   <si>
     <t>Urban</t>
   </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>Richness/diversity</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -379,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,6 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,19 +729,19 @@
   <dimension ref="A1:I623"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E496" activeCellId="2" sqref="E491 E492 E496"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -756,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -785,7 +799,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -814,7 +828,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -843,7 +857,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -872,7 +886,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -901,7 +915,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -930,7 +944,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -959,7 +973,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1133,7 +1147,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1249,7 +1263,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1278,7 +1292,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -1307,7 +1321,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1336,7 +1350,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1452,7 +1466,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1481,7 +1495,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1553,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -1568,7 +1582,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1655,7 +1669,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1684,7 +1698,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1742,7 +1756,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +1814,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1829,7 +1843,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1974,7 +1988,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2003,7 +2017,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -2032,7 +2046,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2148,7 +2162,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2235,7 +2249,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -2293,7 +2307,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2322,7 +2336,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2351,7 +2365,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2409,7 +2423,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2438,7 +2452,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2467,7 +2481,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2496,7 +2510,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2525,7 +2539,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2554,7 +2568,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2564,10 +2578,10 @@
       <c r="C64">
         <v>32</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F64">
@@ -2583,7 +2597,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2622,10 +2636,10 @@
       <c r="C66">
         <v>32</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F66">
@@ -2641,7 +2655,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2670,7 +2684,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2699,7 +2713,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2757,7 +2771,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2786,7 +2800,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2815,7 +2829,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -2844,7 +2858,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2989,7 +3003,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3018,7 +3032,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3047,7 +3061,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3134,7 +3148,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -3163,7 +3177,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -3221,7 +3235,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -3250,7 +3264,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -3337,7 +3351,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -3366,7 +3380,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3395,7 +3409,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -3424,7 +3438,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -3453,7 +3467,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -3511,7 +3525,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -3540,7 +3554,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3583,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3598,7 +3612,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -3627,7 +3641,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -3656,7 +3670,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -3685,7 +3699,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -3714,7 +3728,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -3743,7 +3757,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -3772,7 +3786,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>78</v>
       </c>
@@ -3801,7 +3815,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -3830,7 +3844,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -3888,7 +3902,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3917,7 +3931,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>78</v>
       </c>
@@ -3946,7 +3960,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +4018,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -4033,7 +4047,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -4062,7 +4076,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -4091,7 +4105,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>78</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>78</v>
       </c>
@@ -4149,7 +4163,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -4207,7 +4221,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4250,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -4265,7 +4279,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -4294,7 +4308,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>78</v>
       </c>
@@ -4323,7 +4337,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -4381,7 +4395,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -4410,7 +4424,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>78</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -4468,7 +4482,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -4497,7 +4511,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -4526,7 +4540,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>78</v>
       </c>
@@ -4555,7 +4569,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>78</v>
       </c>
@@ -4584,7 +4598,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>78</v>
       </c>
@@ -4613,7 +4627,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -4642,7 +4656,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -4671,7 +4685,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>78</v>
       </c>
@@ -4700,7 +4714,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>78</v>
       </c>
@@ -4729,7 +4743,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -4758,7 +4772,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -4787,7 +4801,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -4816,7 +4830,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4845,7 +4859,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -4874,7 +4888,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>78</v>
       </c>
@@ -4903,7 +4917,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>78</v>
       </c>
@@ -4932,7 +4946,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>78</v>
       </c>
@@ -4961,7 +4975,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>78</v>
       </c>
@@ -4990,7 +5004,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>78</v>
       </c>
@@ -5019,7 +5033,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>78</v>
       </c>
@@ -5048,7 +5062,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>78</v>
       </c>
@@ -5077,7 +5091,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>78</v>
       </c>
@@ -5106,7 +5120,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>78</v>
       </c>
@@ -5135,7 +5149,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -5164,7 +5178,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -5193,7 +5207,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>78</v>
       </c>
@@ -5222,7 +5236,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -5251,7 +5265,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -5309,7 +5323,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -5338,7 +5352,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>78</v>
       </c>
@@ -5367,7 +5381,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>78</v>
       </c>
@@ -5396,7 +5410,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -5425,7 +5439,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>78</v>
       </c>
@@ -5454,7 +5468,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -5512,7 +5526,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -5541,7 +5555,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>78</v>
       </c>
@@ -5570,7 +5584,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -5599,7 +5613,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>78</v>
       </c>
@@ -5628,7 +5642,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>78</v>
       </c>
@@ -5657,7 +5671,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>78</v>
       </c>
@@ -5686,7 +5700,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>78</v>
       </c>
@@ -5715,7 +5729,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>78</v>
       </c>
@@ -5744,7 +5758,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>78</v>
       </c>
@@ -5773,7 +5787,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -5802,7 +5816,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>78</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>78</v>
       </c>
@@ -5860,7 +5874,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>78</v>
       </c>
@@ -5889,7 +5903,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>78</v>
       </c>
@@ -5918,7 +5932,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>78</v>
       </c>
@@ -5947,7 +5961,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>78</v>
       </c>
@@ -5976,7 +5990,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>78</v>
       </c>
@@ -6005,7 +6019,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>78</v>
       </c>
@@ -6034,7 +6048,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -6063,7 +6077,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>78</v>
       </c>
@@ -6092,7 +6106,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>78</v>
       </c>
@@ -6121,7 +6135,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>78</v>
       </c>
@@ -6150,7 +6164,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>78</v>
       </c>
@@ -6179,7 +6193,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>78</v>
       </c>
@@ -6208,7 +6222,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -6237,7 +6251,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>78</v>
       </c>
@@ -6266,7 +6280,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>78</v>
       </c>
@@ -6295,7 +6309,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>78</v>
       </c>
@@ -6324,7 +6338,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>78</v>
       </c>
@@ -6353,7 +6367,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>78</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>78</v>
       </c>
@@ -6411,7 +6425,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>78</v>
       </c>
@@ -6440,7 +6454,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>78</v>
       </c>
@@ -6469,7 +6483,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>78</v>
       </c>
@@ -6498,7 +6512,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>78</v>
       </c>
@@ -6527,7 +6541,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>78</v>
       </c>
@@ -6556,7 +6570,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>78</v>
       </c>
@@ -6585,7 +6599,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>78</v>
       </c>
@@ -6614,7 +6628,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>78</v>
       </c>
@@ -6643,7 +6657,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>78</v>
       </c>
@@ -6672,7 +6686,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>78</v>
       </c>
@@ -6701,7 +6715,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>78</v>
       </c>
@@ -6730,7 +6744,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>78</v>
       </c>
@@ -6759,7 +6773,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>78</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>78</v>
       </c>
@@ -6817,7 +6831,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>78</v>
       </c>
@@ -6846,7 +6860,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -6875,7 +6889,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>78</v>
       </c>
@@ -6904,7 +6918,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>78</v>
       </c>
@@ -6933,7 +6947,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>78</v>
       </c>
@@ -6962,7 +6976,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -6991,7 +7005,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>78</v>
       </c>
@@ -7020,7 +7034,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>78</v>
       </c>
@@ -7049,7 +7063,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>78</v>
       </c>
@@ -7078,7 +7092,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>78</v>
       </c>
@@ -7107,7 +7121,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>78</v>
       </c>
@@ -7136,7 +7150,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>78</v>
       </c>
@@ -7165,7 +7179,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>78</v>
       </c>
@@ -7194,7 +7208,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>78</v>
       </c>
@@ -7223,7 +7237,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>78</v>
       </c>
@@ -7252,7 +7266,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>78</v>
       </c>
@@ -7281,7 +7295,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>78</v>
       </c>
@@ -7310,7 +7324,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>78</v>
       </c>
@@ -7339,7 +7353,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>78</v>
       </c>
@@ -7368,7 +7382,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>78</v>
       </c>
@@ -7397,7 +7411,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>78</v>
       </c>
@@ -7426,7 +7440,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -7455,7 +7469,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>78</v>
       </c>
@@ -7484,7 +7498,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>78</v>
       </c>
@@ -7513,7 +7527,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>78</v>
       </c>
@@ -7542,7 +7556,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>78</v>
       </c>
@@ -7571,7 +7585,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>78</v>
       </c>
@@ -7600,7 +7614,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>78</v>
       </c>
@@ -7629,7 +7643,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>78</v>
       </c>
@@ -7658,7 +7672,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>78</v>
       </c>
@@ -7687,7 +7701,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>78</v>
       </c>
@@ -7716,7 +7730,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>78</v>
       </c>
@@ -7745,7 +7759,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>78</v>
       </c>
@@ -7774,7 +7788,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>78</v>
       </c>
@@ -7803,7 +7817,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>78</v>
       </c>
@@ -7832,7 +7846,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>78</v>
       </c>
@@ -7861,7 +7875,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>78</v>
       </c>
@@ -7890,7 +7904,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>78</v>
       </c>
@@ -7919,7 +7933,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>78</v>
       </c>
@@ -7948,7 +7962,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>78</v>
       </c>
@@ -7977,7 +7991,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>78</v>
       </c>
@@ -8006,7 +8020,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>78</v>
       </c>
@@ -8035,7 +8049,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>78</v>
       </c>
@@ -8064,7 +8078,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>78</v>
       </c>
@@ -8093,7 +8107,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>78</v>
       </c>
@@ -8122,7 +8136,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>78</v>
       </c>
@@ -8151,7 +8165,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>78</v>
       </c>
@@ -8180,7 +8194,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>78</v>
       </c>
@@ -8209,7 +8223,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>78</v>
       </c>
@@ -8238,7 +8252,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>78</v>
       </c>
@@ -8267,7 +8281,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>78</v>
       </c>
@@ -8296,7 +8310,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>78</v>
       </c>
@@ -8325,7 +8339,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>78</v>
       </c>
@@ -8354,7 +8368,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>78</v>
       </c>
@@ -8383,7 +8397,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>78</v>
       </c>
@@ -8412,7 +8426,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>78</v>
       </c>
@@ -8441,7 +8455,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>78</v>
       </c>
@@ -8470,7 +8484,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>78</v>
       </c>
@@ -8499,7 +8513,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>78</v>
       </c>
@@ -8528,7 +8542,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>78</v>
       </c>
@@ -8557,7 +8571,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>78</v>
       </c>
@@ -8586,7 +8600,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>78</v>
       </c>
@@ -8615,7 +8629,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>78</v>
       </c>
@@ -8644,7 +8658,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>78</v>
       </c>
@@ -8673,7 +8687,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>78</v>
       </c>
@@ -8702,7 +8716,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>78</v>
       </c>
@@ -8731,7 +8745,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>78</v>
       </c>
@@ -8760,7 +8774,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>78</v>
       </c>
@@ -8789,7 +8803,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>78</v>
       </c>
@@ -8818,7 +8832,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>78</v>
       </c>
@@ -8847,7 +8861,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>78</v>
       </c>
@@ -8876,7 +8890,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>78</v>
       </c>
@@ -8905,7 +8919,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>78</v>
       </c>
@@ -8934,7 +8948,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>78</v>
       </c>
@@ -8963,7 +8977,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>78</v>
       </c>
@@ -8992,7 +9006,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>78</v>
       </c>
@@ -9021,7 +9035,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -9050,7 +9064,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -9079,7 +9093,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>78</v>
       </c>
@@ -9108,7 +9122,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>78</v>
       </c>
@@ -9137,7 +9151,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>78</v>
       </c>
@@ -9166,7 +9180,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>78</v>
       </c>
@@ -9195,7 +9209,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>78</v>
       </c>
@@ -9224,7 +9238,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>78</v>
       </c>
@@ -9253,7 +9267,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>78</v>
       </c>
@@ -9282,7 +9296,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>78</v>
       </c>
@@ -9311,7 +9325,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>78</v>
       </c>
@@ -9340,7 +9354,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>78</v>
       </c>
@@ -9369,7 +9383,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>78</v>
       </c>
@@ -9398,7 +9412,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>78</v>
       </c>
@@ -9427,7 +9441,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>78</v>
       </c>
@@ -9456,7 +9470,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -9485,7 +9499,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>78</v>
       </c>
@@ -9514,7 +9528,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>79</v>
       </c>
@@ -9543,7 +9557,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>79</v>
       </c>
@@ -9572,7 +9586,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>79</v>
       </c>
@@ -9601,7 +9615,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>79</v>
       </c>
@@ -9630,7 +9644,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -9659,7 +9673,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>79</v>
       </c>
@@ -9688,7 +9702,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>79</v>
       </c>
@@ -9717,7 +9731,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>79</v>
       </c>
@@ -9746,7 +9760,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>79</v>
       </c>
@@ -9775,7 +9789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -9804,7 +9818,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>79</v>
       </c>
@@ -9833,7 +9847,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>79</v>
       </c>
@@ -9862,7 +9876,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>79</v>
       </c>
@@ -9891,7 +9905,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>79</v>
       </c>
@@ -9920,7 +9934,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>79</v>
       </c>
@@ -9949,7 +9963,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>79</v>
       </c>
@@ -9978,7 +9992,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>79</v>
       </c>
@@ -10007,7 +10021,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -10036,7 +10050,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>79</v>
       </c>
@@ -10065,7 +10079,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>79</v>
       </c>
@@ -10094,7 +10108,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -10123,7 +10137,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>79</v>
       </c>
@@ -10152,7 +10166,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -10181,7 +10195,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -10210,7 +10224,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -10239,7 +10253,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>79</v>
       </c>
@@ -10268,7 +10282,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>79</v>
       </c>
@@ -10297,7 +10311,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>79</v>
       </c>
@@ -10326,7 +10340,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -10355,7 +10369,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -10384,7 +10398,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>79</v>
       </c>
@@ -10413,7 +10427,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>79</v>
       </c>
@@ -10442,7 +10456,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>79</v>
       </c>
@@ -10471,7 +10485,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>79</v>
       </c>
@@ -10500,7 +10514,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>79</v>
       </c>
@@ -10529,7 +10543,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>79</v>
       </c>
@@ -10558,7 +10572,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>79</v>
       </c>
@@ -10587,7 +10601,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>79</v>
       </c>
@@ -10616,7 +10630,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>79</v>
       </c>
@@ -10645,7 +10659,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>79</v>
       </c>
@@ -10674,7 +10688,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>79</v>
       </c>
@@ -10703,7 +10717,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>79</v>
       </c>
@@ -10732,7 +10746,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>79</v>
       </c>
@@ -10761,7 +10775,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>79</v>
       </c>
@@ -10790,7 +10804,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>79</v>
       </c>
@@ -10819,7 +10833,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>79</v>
       </c>
@@ -10848,7 +10862,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -10877,7 +10891,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>79</v>
       </c>
@@ -10906,7 +10920,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>79</v>
       </c>
@@ -10935,7 +10949,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>79</v>
       </c>
@@ -10964,7 +10978,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>79</v>
       </c>
@@ -10993,7 +11007,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>79</v>
       </c>
@@ -11022,7 +11036,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>79</v>
       </c>
@@ -11051,7 +11065,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -11080,7 +11094,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -11109,7 +11123,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -11138,7 +11152,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -11167,7 +11181,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -11196,7 +11210,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -11225,7 +11239,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>79</v>
       </c>
@@ -11254,7 +11268,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>79</v>
       </c>
@@ -11283,7 +11297,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>79</v>
       </c>
@@ -11312,7 +11326,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>79</v>
       </c>
@@ -11341,7 +11355,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>79</v>
       </c>
@@ -11370,7 +11384,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>79</v>
       </c>
@@ -11399,7 +11413,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>79</v>
       </c>
@@ -11428,7 +11442,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>79</v>
       </c>
@@ -11457,7 +11471,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>79</v>
       </c>
@@ -11486,7 +11500,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>79</v>
       </c>
@@ -11515,7 +11529,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -11544,7 +11558,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>79</v>
       </c>
@@ -11573,7 +11587,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>79</v>
       </c>
@@ -11602,7 +11616,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>79</v>
       </c>
@@ -11631,7 +11645,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>79</v>
       </c>
@@ -11660,7 +11674,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>79</v>
       </c>
@@ -11689,7 +11703,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>79</v>
       </c>
@@ -11718,7 +11732,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -11747,7 +11761,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>79</v>
       </c>
@@ -11776,7 +11790,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>79</v>
       </c>
@@ -11805,7 +11819,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -11834,7 +11848,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>79</v>
       </c>
@@ -11863,7 +11877,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>79</v>
       </c>
@@ -11892,7 +11906,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>79</v>
       </c>
@@ -11921,7 +11935,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>79</v>
       </c>
@@ -11950,7 +11964,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>79</v>
       </c>
@@ -11979,7 +11993,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>79</v>
       </c>
@@ -12008,7 +12022,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -12037,7 +12051,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>79</v>
       </c>
@@ -12066,7 +12080,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>79</v>
       </c>
@@ -12095,7 +12109,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>79</v>
       </c>
@@ -12124,7 +12138,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>79</v>
       </c>
@@ -12153,7 +12167,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>79</v>
       </c>
@@ -12182,7 +12196,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>79</v>
       </c>
@@ -12211,7 +12225,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>79</v>
       </c>
@@ -12240,7 +12254,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>79</v>
       </c>
@@ -12269,7 +12283,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>79</v>
       </c>
@@ -12298,7 +12312,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -12327,7 +12341,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>79</v>
       </c>
@@ -12356,7 +12370,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>79</v>
       </c>
@@ -12385,7 +12399,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>79</v>
       </c>
@@ -12414,7 +12428,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>79</v>
       </c>
@@ -12443,7 +12457,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>79</v>
       </c>
@@ -12472,7 +12486,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>79</v>
       </c>
@@ -12501,7 +12515,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>79</v>
       </c>
@@ -12530,7 +12544,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>79</v>
       </c>
@@ -12559,7 +12573,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>79</v>
       </c>
@@ -12588,7 +12602,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>79</v>
       </c>
@@ -12617,7 +12631,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>79</v>
       </c>
@@ -12646,7 +12660,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>79</v>
       </c>
@@ -12675,7 +12689,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>79</v>
       </c>
@@ -12704,7 +12718,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>79</v>
       </c>
@@ -12733,7 +12747,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>79</v>
       </c>
@@ -12762,7 +12776,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>79</v>
       </c>
@@ -12791,7 +12805,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>79</v>
       </c>
@@ -12820,7 +12834,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>79</v>
       </c>
@@ -12849,7 +12863,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>79</v>
       </c>
@@ -12878,7 +12892,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>79</v>
       </c>
@@ -12907,7 +12921,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -12936,7 +12950,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>79</v>
       </c>
@@ -12965,7 +12979,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>79</v>
       </c>
@@ -12994,7 +13008,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>79</v>
       </c>
@@ -13023,7 +13037,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>79</v>
       </c>
@@ -13052,7 +13066,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>79</v>
       </c>
@@ -13081,7 +13095,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>79</v>
       </c>
@@ -13110,7 +13124,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>79</v>
       </c>
@@ -13139,7 +13153,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -13168,7 +13182,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>79</v>
       </c>
@@ -13197,7 +13211,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>79</v>
       </c>
@@ -13226,7 +13240,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>79</v>
       </c>
@@ -13255,7 +13269,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>79</v>
       </c>
@@ -13284,7 +13298,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>79</v>
       </c>
@@ -13313,7 +13327,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>79</v>
       </c>
@@ -13342,7 +13356,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -13371,7 +13385,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>79</v>
       </c>
@@ -13400,7 +13414,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>79</v>
       </c>
@@ -13429,7 +13443,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>79</v>
       </c>
@@ -13458,7 +13472,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>79</v>
       </c>
@@ -13487,7 +13501,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>79</v>
       </c>
@@ -13516,7 +13530,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>79</v>
       </c>
@@ -13545,7 +13559,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>79</v>
       </c>
@@ -13574,7 +13588,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>79</v>
       </c>
@@ -13603,7 +13617,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>79</v>
       </c>
@@ -13632,7 +13646,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>79</v>
       </c>
@@ -13661,7 +13675,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>79</v>
       </c>
@@ -13690,7 +13704,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -13719,7 +13733,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -13748,7 +13762,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>79</v>
       </c>
@@ -13777,7 +13791,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>79</v>
       </c>
@@ -13806,7 +13820,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>79</v>
       </c>
@@ -13835,7 +13849,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>79</v>
       </c>
@@ -13864,7 +13878,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>79</v>
       </c>
@@ -13893,7 +13907,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>79</v>
       </c>
@@ -13922,7 +13936,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>79</v>
       </c>
@@ -13951,7 +13965,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -13980,7 +13994,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -14009,7 +14023,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>79</v>
       </c>
@@ -14038,7 +14052,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>79</v>
       </c>
@@ -14067,7 +14081,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>79</v>
       </c>
@@ -14096,7 +14110,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>79</v>
       </c>
@@ -14125,7 +14139,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>79</v>
       </c>
@@ -14154,7 +14168,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -14183,7 +14197,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>79</v>
       </c>
@@ -14212,7 +14226,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>79</v>
       </c>
@@ -14241,7 +14255,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -14270,7 +14284,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>79</v>
       </c>
@@ -14299,7 +14313,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -14328,7 +14342,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>79</v>
       </c>
@@ -14357,7 +14371,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>79</v>
       </c>
@@ -14386,7 +14400,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -14415,7 +14429,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>79</v>
       </c>
@@ -14444,7 +14458,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -14473,7 +14487,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>79</v>
       </c>
@@ -14502,7 +14516,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>79</v>
       </c>
@@ -14531,7 +14545,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>79</v>
       </c>
@@ -14560,7 +14574,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>79</v>
       </c>
@@ -14589,7 +14603,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>79</v>
       </c>
@@ -14618,7 +14632,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>79</v>
       </c>
@@ -14647,7 +14661,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>79</v>
       </c>
@@ -14676,7 +14690,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>79</v>
       </c>
@@ -14705,7 +14719,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>79</v>
       </c>
@@ -14734,7 +14748,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>79</v>
       </c>
@@ -14763,7 +14777,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>79</v>
       </c>
@@ -14792,7 +14806,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>79</v>
       </c>
@@ -14821,7 +14835,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>79</v>
       </c>
@@ -14850,7 +14864,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>79</v>
       </c>
@@ -14879,7 +14893,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>79</v>
       </c>
@@ -14908,7 +14922,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>79</v>
       </c>
@@ -14937,7 +14951,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>79</v>
       </c>
@@ -14966,7 +14980,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>79</v>
       </c>
@@ -14995,7 +15009,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>79</v>
       </c>
@@ -15024,7 +15038,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>79</v>
       </c>
@@ -15053,7 +15067,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>79</v>
       </c>
@@ -15082,7 +15096,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>79</v>
       </c>
@@ -15111,7 +15125,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>79</v>
       </c>
@@ -15140,7 +15154,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>79</v>
       </c>
@@ -15169,7 +15183,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>79</v>
       </c>
@@ -15198,7 +15212,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>79</v>
       </c>
@@ -15227,7 +15241,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>79</v>
       </c>
@@ -15256,7 +15270,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>79</v>
       </c>
@@ -15285,7 +15299,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>79</v>
       </c>
@@ -15314,7 +15328,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>79</v>
       </c>
@@ -15343,7 +15357,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>79</v>
       </c>
@@ -15372,7 +15386,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>79</v>
       </c>
@@ -15401,7 +15415,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>79</v>
       </c>
@@ -15430,7 +15444,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>79</v>
       </c>
@@ -15459,7 +15473,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>79</v>
       </c>
@@ -15488,7 +15502,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>79</v>
       </c>
@@ -15517,7 +15531,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>79</v>
       </c>
@@ -15546,7 +15560,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>79</v>
       </c>
@@ -15575,7 +15589,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>79</v>
       </c>
@@ -15604,7 +15618,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>79</v>
       </c>
@@ -15633,7 +15647,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>79</v>
       </c>
@@ -15662,7 +15676,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>79</v>
       </c>
@@ -15691,7 +15705,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>79</v>
       </c>
@@ -15720,7 +15734,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>79</v>
       </c>
@@ -15749,7 +15763,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>79</v>
       </c>
@@ -15778,7 +15792,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>79</v>
       </c>
@@ -15807,7 +15821,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>79</v>
       </c>
@@ -15836,7 +15850,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>79</v>
       </c>
@@ -15865,7 +15879,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>79</v>
       </c>
@@ -15894,7 +15908,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>79</v>
       </c>
@@ -15923,7 +15937,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>79</v>
       </c>
@@ -15952,7 +15966,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>79</v>
       </c>
@@ -15981,7 +15995,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>79</v>
       </c>
@@ -16010,7 +16024,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>79</v>
       </c>
@@ -16039,7 +16053,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>79</v>
       </c>
@@ -16068,7 +16082,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>79</v>
       </c>
@@ -16097,7 +16111,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>79</v>
       </c>
@@ -16126,7 +16140,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>79</v>
       </c>
@@ -16155,7 +16169,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>79</v>
       </c>
@@ -16184,7 +16198,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>79</v>
       </c>
@@ -16213,7 +16227,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>79</v>
       </c>
@@ -16242,7 +16256,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>79</v>
       </c>
@@ -16271,7 +16285,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>79</v>
       </c>
@@ -16300,7 +16314,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>79</v>
       </c>
@@ -16329,7 +16343,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>79</v>
       </c>
@@ -16358,7 +16372,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>79</v>
       </c>
@@ -16387,7 +16401,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>79</v>
       </c>
@@ -16416,7 +16430,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>79</v>
       </c>
@@ -16445,7 +16459,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>79</v>
       </c>
@@ -16474,7 +16488,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>79</v>
       </c>
@@ -16503,7 +16517,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>79</v>
       </c>
@@ -16532,7 +16546,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>79</v>
       </c>
@@ -16561,7 +16575,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>79</v>
       </c>
@@ -16590,7 +16604,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>79</v>
       </c>
@@ -16619,7 +16633,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>79</v>
       </c>
@@ -16648,7 +16662,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>79</v>
       </c>
@@ -16677,7 +16691,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>79</v>
       </c>
@@ -16706,7 +16720,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>79</v>
       </c>
@@ -16735,7 +16749,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>79</v>
       </c>
@@ -16764,7 +16778,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>79</v>
       </c>
@@ -16793,7 +16807,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>79</v>
       </c>
@@ -16822,7 +16836,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>79</v>
       </c>
@@ -16851,7 +16865,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>79</v>
       </c>
@@ -16880,7 +16894,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>79</v>
       </c>
@@ -16909,7 +16923,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>79</v>
       </c>
@@ -16938,7 +16952,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>79</v>
       </c>
@@ -16967,7 +16981,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -16996,7 +17010,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>79</v>
       </c>
@@ -17025,7 +17039,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>79</v>
       </c>
@@ -17054,7 +17068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>79</v>
       </c>
@@ -17083,7 +17097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -17112,7 +17126,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>79</v>
       </c>
@@ -17141,7 +17155,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>79</v>
       </c>
@@ -17170,7 +17184,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -17199,7 +17213,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>79</v>
       </c>
@@ -17228,7 +17242,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>79</v>
       </c>
@@ -17257,7 +17271,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -17286,7 +17300,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>79</v>
       </c>
@@ -17315,7 +17329,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>79</v>
       </c>
@@ -17344,7 +17358,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>79</v>
       </c>
@@ -17373,7 +17387,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>79</v>
       </c>
@@ -17402,7 +17416,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>79</v>
       </c>
@@ -17431,7 +17445,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>79</v>
       </c>
@@ -17460,7 +17474,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -17489,7 +17503,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>79</v>
       </c>
@@ -17518,7 +17532,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>79</v>
       </c>
@@ -17547,7 +17561,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>79</v>
       </c>
@@ -17576,7 +17590,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>79</v>
       </c>
@@ -17605,7 +17619,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>79</v>
       </c>
@@ -17634,7 +17648,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>79</v>
       </c>
@@ -17663,7 +17677,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>79</v>
       </c>
@@ -17692,7 +17706,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>79</v>
       </c>
@@ -17721,7 +17735,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>79</v>
       </c>
@@ -17750,7 +17764,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>79</v>
       </c>
@@ -17779,7 +17793,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>79</v>
       </c>
@@ -17808,7 +17822,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>79</v>
       </c>
@@ -17837,7 +17851,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>79</v>
       </c>
@@ -17866,7 +17880,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -17895,7 +17909,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>79</v>
       </c>
@@ -17924,7 +17938,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>79</v>
       </c>
@@ -17953,7 +17967,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>79</v>
       </c>
@@ -17982,7 +17996,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>79</v>
       </c>
@@ -18011,7 +18025,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>79</v>
       </c>
@@ -18040,7 +18054,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>79</v>
       </c>
@@ -18069,7 +18083,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>79</v>
       </c>
@@ -18098,7 +18112,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>79</v>
       </c>
@@ -18127,7 +18141,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>79</v>
       </c>
@@ -18156,7 +18170,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>79</v>
       </c>
@@ -18185,7 +18199,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>79</v>
       </c>
@@ -18214,7 +18228,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>79</v>
       </c>
@@ -18243,7 +18257,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>79</v>
       </c>
@@ -18272,7 +18286,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>79</v>
       </c>
@@ -18301,7 +18315,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>79</v>
       </c>
@@ -18330,7 +18344,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>79</v>
       </c>
@@ -18359,7 +18373,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>79</v>
       </c>
@@ -18388,7 +18402,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>79</v>
       </c>
@@ -18417,7 +18431,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>79</v>
       </c>
@@ -18446,7 +18460,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>79</v>
       </c>
@@ -18475,7 +18489,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>79</v>
       </c>
@@ -18504,7 +18518,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>79</v>
       </c>
@@ -18533,7 +18547,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>79</v>
       </c>
@@ -18562,7 +18576,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>79</v>
       </c>
@@ -18591,7 +18605,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>79</v>
       </c>
@@ -18620,7 +18634,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>79</v>
       </c>
@@ -18649,7 +18663,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>79</v>
       </c>
@@ -18678,7 +18692,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>79</v>
       </c>
@@ -18707,7 +18721,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>79</v>
       </c>
@@ -18736,7 +18750,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -18765,7 +18779,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -18798,12 +18812,12 @@
   <autoFilter ref="A1:I623" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Muddy"/>
+        <filter val="Stevenspeil"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="29"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18813,19 +18827,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B45412-D001-4825-B8F3-AE60A1DF844E}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q17"/>
+      <selection activeCell="I11" sqref="I11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -18856,8 +18874,41 @@
       <c r="L1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -18895,8 +18946,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1.48</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <f>S2/$R2</f>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y9" si="1">T2/$C2</f>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" ref="Z2:Z9" si="2">U2/$C2</f>
+        <v>2.0270270270270272</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AA9" si="3">V2/$C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10</v>
       </c>
@@ -18916,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I9" si="1">D3/$C3</f>
+        <f t="shared" ref="I3:I9" si="4">D3/$C3</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
@@ -18931,8 +19019,30 @@
         <f t="shared" si="0"/>
         <v>1.3513513513513513</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>1.48</v>
+      </c>
+      <c r="X3" s="3">
+        <f>S3/$C3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>22</v>
       </c>
@@ -18952,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -18967,8 +19077,30 @@
         <f t="shared" si="0"/>
         <v>0.67567567567567566</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>1.48</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" ref="X3:X9" si="5">S4/$C4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>23</v>
       </c>
@@ -18988,7 +19120,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67567567567567566</v>
       </c>
       <c r="J5" s="3">
@@ -19003,8 +19135,30 @@
         <f t="shared" si="0"/>
         <v>0.67567567567567566</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5">
+        <v>1.48</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>26</v>
       </c>
@@ -19024,7 +19178,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -19039,8 +19193,30 @@
         <f t="shared" si="0"/>
         <v>1.3513513513513513</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>1.48</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>27</v>
       </c>
@@ -19060,7 +19236,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67567567567567566</v>
       </c>
       <c r="J7" s="3">
@@ -19075,8 +19251,30 @@
         <f t="shared" si="0"/>
         <v>1.3513513513513513</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>1.48</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>28</v>
       </c>
@@ -19096,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
@@ -19111,8 +19309,30 @@
         <f t="shared" si="0"/>
         <v>0.67567567567567566</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>28</v>
+      </c>
+      <c r="R8">
+        <v>1.48</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>32</v>
       </c>
@@ -19132,7 +19352,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67567567567567566</v>
       </c>
       <c r="J9" s="3">
@@ -19147,52 +19367,114 @@
         <f t="shared" si="0"/>
         <v>1.3513513513513513</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>32</v>
+      </c>
+      <c r="R9">
+        <v>1.48</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I10" s="4">
         <f>SUM(I2:I9)</f>
         <v>2.7027027027027026</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10:L10" si="2">SUM(J2:J9)</f>
+        <f t="shared" ref="J10:L10" si="6">SUM(J2:J9)</f>
         <v>4.7297297297297298</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.4594594594594597</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4324324324324316</v>
       </c>
       <c r="M10" s="4">
         <f>SUM(I10:L10)</f>
         <v>24.324324324324323</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X10" s="4">
+        <f>SUM(X2:X9)</f>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" ref="Y10:AA10" si="7">SUM(Y2:Y9)</f>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0270270270270272</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM(X10:AA10)</f>
+        <v>4.7297297297297298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I11" s="4">
         <f>(I10/$M$10)*100</f>
         <v>11.111111111111112</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" ref="J11:L11" si="3">(J10/$M$10)*100</f>
+        <f t="shared" ref="J11:L11" si="8">(J10/$M$10)*100</f>
         <v>19.444444444444446</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>38.888888888888893</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30.555555555555554</v>
       </c>
       <c r="M11" s="4">
         <f>SUM(I11:L11)</f>
         <v>100.00000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X11" s="4">
+        <f>(X10/$AB$10)*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" ref="Y11:AA11" si="9">(Y10/$AB$10)*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="9"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM(X11:AA11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -19223,8 +19505,38 @@
       <c r="L13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -19251,19 +19563,44 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:J21" si="4">E14/$C14</f>
+        <f t="shared" ref="J14:J21" si="10">E14/$C14</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" ref="K14:K21" si="5">F14/$C14</f>
+        <f t="shared" ref="K14:K21" si="11">F14/$C14</f>
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L21" si="6">G14/$C14</f>
+        <f t="shared" ref="L14:L21" si="12">G14/$C14</f>
         <v>0.11976047904191617</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>8.35</v>
+      </c>
+      <c r="X14" s="3">
+        <f>S14/$C14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" ref="Y14:Y21" si="13">T14/$C14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" ref="Z14:Z21" si="14">U14/$C14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" ref="AA14:AA21" si="15">V14/$C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
@@ -19283,23 +19620,45 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:I21" si="7">D15/$C15</f>
+        <f t="shared" ref="I15:I21" si="16">D15/$C15</f>
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23952095808383234</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.23952095808383234</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.3592814371257485</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>8.35</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" ref="X15:X21" si="17">S15/$C15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7</v>
       </c>
@@ -19319,23 +19678,45 @@
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.3592814371257485</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>8.35</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8</v>
       </c>
@@ -19355,23 +19736,45 @@
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.3592814371257485</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.47904191616766467</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>8.35</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -19391,23 +19794,45 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.3592814371257485</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.3592814371257485</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>8.35</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -19427,23 +19852,45 @@
         <v>4</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23952095808383234</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.47904191616766467</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>8.35</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>24</v>
       </c>
@@ -19463,23 +19910,45 @@
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.47904191616766467</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>8.35</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>25</v>
       </c>
@@ -19499,67 +19968,129 @@
         <v>1</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11976047904191617</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>8.35</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I22" s="4">
         <f>SUM(I14:I21)</f>
         <v>0.3592814371257485</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ref="J22" si="8">SUM(J14:J21)</f>
+        <f t="shared" ref="J22" si="18">SUM(J14:J21)</f>
         <v>1.5568862275449105</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22" si="9">SUM(K14:K21)</f>
+        <f t="shared" ref="K22" si="19">SUM(K14:K21)</f>
         <v>0.3592814371257485</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" ref="L22" si="10">SUM(L14:L21)</f>
+        <f t="shared" ref="L22" si="20">SUM(L14:L21)</f>
         <v>2.7544910179640723</v>
       </c>
       <c r="M22" s="4">
         <f>SUM(I22:L22)</f>
         <v>5.0299401197604796</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X22" s="4">
+        <f>SUM(X14:X21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" ref="Y22:AA22" si="21">SUM(Y14:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <f>SUM(X22:AA22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I23" s="4">
         <f>(I22/$M$22)*100</f>
         <v>7.1428571428571423</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:L23" si="11">(J22/$M$22)*100</f>
+        <f t="shared" ref="J23:L23" si="22">(J22/$M$22)*100</f>
         <v>30.952380952380953</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.1428571428571423</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>54.761904761904766</v>
       </c>
       <c r="M23" s="4">
         <f>SUM(I23:L23)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X23" s="4" t="e">
+        <f>(X22/$AB$22)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="4" t="e">
+        <f t="shared" ref="Y23:AA23" si="23">(Y22/$AB$22)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="4" t="e">
+        <f>SUM(X23:AA23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -19590,8 +20121,38 @@
       <c r="L25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="X25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -19618,19 +20179,44 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:J33" si="12">E26/$C26</f>
+        <f t="shared" ref="J26:J33" si="24">E26/$C26</f>
         <v>1.3953488372093024</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26:K33" si="13">F26/$C26</f>
+        <f t="shared" ref="K26:K33" si="25">F26/$C26</f>
         <v>0.46511627906976744</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26:L33" si="14">G26/$C26</f>
+        <f t="shared" ref="L26:L33" si="26">G26/$C26</f>
         <v>0.93023255813953487</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>2.15</v>
+      </c>
+      <c r="X26" s="3">
+        <f>S26/$C26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" ref="Y26:Y33" si="27">T26/$C26</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" ref="Z26:Z33" si="28">U26/$C26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <f t="shared" ref="AA26:AA33" si="29">V26/$C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11</v>
       </c>
@@ -19650,23 +20236,45 @@
         <v>3</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" ref="I27:I33" si="15">D27/$C27</f>
+        <f t="shared" ref="I27:I33" si="30">D27/$C27</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.3953488372093024</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>2.15</v>
+      </c>
+      <c r="X27" s="3">
+        <f t="shared" ref="X27:X33" si="31">S27/$C27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>12</v>
       </c>
@@ -19686,23 +20294,45 @@
         <v>3</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.3953488372093024</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>2.15</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>14</v>
       </c>
@@ -19722,23 +20352,45 @@
         <v>2</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.93023255813953487</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <v>2.15</v>
+      </c>
+      <c r="X29" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>19</v>
       </c>
@@ -19758,23 +20410,45 @@
         <v>2</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.93023255813953487</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>19</v>
+      </c>
+      <c r="R30">
+        <v>2.15</v>
+      </c>
+      <c r="X30" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>21</v>
       </c>
@@ -19794,23 +20468,45 @@
         <v>2</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.93023255813953487</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>21</v>
+      </c>
+      <c r="R31">
+        <v>2.15</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
@@ -19830,23 +20526,45 @@
         <v>2</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.93023255813953487</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>2.15</v>
+      </c>
+      <c r="X32" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>31</v>
       </c>
@@ -19866,67 +20584,129 @@
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.46511627906976744</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
+        <v>2.15</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I34" s="4">
         <f>SUM(I26:I33)</f>
         <v>0.46511627906976744</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" ref="J34" si="16">SUM(J26:J33)</f>
+        <f t="shared" ref="J34" si="32">SUM(J26:J33)</f>
         <v>4.6511627906976747</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" ref="K34" si="17">SUM(K26:K33)</f>
+        <f t="shared" ref="K34" si="33">SUM(K26:K33)</f>
         <v>4.6511627906976747</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34" si="18">SUM(L26:L33)</f>
+        <f t="shared" ref="L34" si="34">SUM(L26:L33)</f>
         <v>7.9069767441860463</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(I34:L34)</f>
         <v>17.674418604651162</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X34" s="4">
+        <f>SUM(X26:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" ref="Y34:AA34" si="35">SUM(Y26:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4">
+        <f>SUM(X34:AA34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I35" s="4">
         <f>(I34/$M$34)*100</f>
         <v>2.6315789473684212</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ref="J35:L35" si="19">(J34/$M$34)*100</f>
+        <f t="shared" ref="J35:L35" si="36">(J34/$M$34)*100</f>
         <v>26.315789473684216</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>26.315789473684216</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>44.736842105263158</v>
       </c>
       <c r="M35" s="4">
         <f>SUM(I35:L35)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X35" s="4" t="e">
+        <f>(X34/$AB$34)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="4" t="e">
+        <f t="shared" ref="Y35:AA35" si="37">(Y34/$AB$34)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="4" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="4" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="4" t="e">
+        <f>SUM(X35:AA35)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -19957,8 +20737,38 @@
       <c r="L37" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>82</v>
+      </c>
+      <c r="S37" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" t="s">
+        <v>83</v>
+      </c>
+      <c r="X37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -19985,19 +20795,44 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J45" si="20">E38/$C38</f>
+        <f t="shared" ref="J38:J45" si="38">E38/$C38</f>
         <v>0.11976047904191617</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ref="K38:K45" si="21">F38/$C38</f>
+        <f t="shared" ref="K38:K45" si="39">F38/$C38</f>
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" ref="L38:L45" si="22">G38/$C38</f>
+        <f t="shared" ref="L38:L45" si="40">G38/$C38</f>
         <v>0.3592814371257485</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>8.35</v>
+      </c>
+      <c r="X38" s="3">
+        <f>S38/$C38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" ref="Y38:Y45" si="41">T38/$C38</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" ref="Z38:Z45" si="42">U38/$C38</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" ref="AA38:AA45" si="43">V38/$C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>6</v>
       </c>
@@ -20017,23 +20852,45 @@
         <v>4</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" ref="I39:I45" si="23">D39/$C39</f>
+        <f t="shared" ref="I39:I45" si="44">D39/$C39</f>
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.47904191616766467</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>8.35</v>
+      </c>
+      <c r="X39" s="3">
+        <f t="shared" ref="X39:X45" si="45">S39/$C39</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9</v>
       </c>
@@ -20053,23 +20910,45 @@
         <v>3</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.3592814371257485</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>8.35</v>
+      </c>
+      <c r="X40" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>13</v>
       </c>
@@ -20089,23 +20968,45 @@
         <v>2</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.23952095808383234</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>13</v>
+      </c>
+      <c r="R41">
+        <v>8.35</v>
+      </c>
+      <c r="X41" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>16</v>
       </c>
@@ -20125,23 +21026,45 @@
         <v>2</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.23952095808383234</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <v>8.35</v>
+      </c>
+      <c r="X42" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>18</v>
       </c>
@@ -20161,23 +21084,45 @@
         <v>2</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.23952095808383234</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>18</v>
+      </c>
+      <c r="R43">
+        <v>8.35</v>
+      </c>
+      <c r="X43" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>20</v>
       </c>
@@ -20197,23 +21142,45 @@
         <v>2</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.23952095808383234</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>20</v>
+      </c>
+      <c r="R44">
+        <v>8.35</v>
+      </c>
+      <c r="X44" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>8.35</v>
       </c>
@@ -20230,74 +21197,133 @@
         <v>2</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.11976047904191617</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0.23952095808383234</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>8.35</v>
+      </c>
+      <c r="X45" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I46" s="4">
         <f>SUM(I38:I45)</f>
         <v>0.11976047904191617</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" ref="J46" si="24">SUM(J38:J45)</f>
+        <f t="shared" ref="J46" si="46">SUM(J38:J45)</f>
         <v>0.23952095808383234</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" ref="K46" si="25">SUM(K38:K45)</f>
+        <f t="shared" ref="K46" si="47">SUM(K38:K45)</f>
         <v>0.47904191616766467</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" ref="L46" si="26">SUM(L38:L45)</f>
+        <f t="shared" ref="L46" si="48">SUM(L38:L45)</f>
         <v>2.3952095808383236</v>
       </c>
       <c r="M46" s="4">
         <f>SUM(I46:L46)</f>
         <v>3.2335329341317367</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X46" s="4">
+        <f>SUM(X38:X45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" ref="Y46:AA46" si="49">SUM(Y38:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="4">
+        <f>SUM(X46:AA46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I47" s="4">
         <f>(I46/$M$46)*100</f>
         <v>3.7037037037037033</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" ref="J47:L47" si="27">(J46/$M$46)*100</f>
+        <f t="shared" ref="J47:L47" si="50">(J46/$M$46)*100</f>
         <v>7.4074074074074066</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>14.814814814814813</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>74.074074074074076</v>
       </c>
       <c r="M47" s="4">
         <f>SUM(I47:L47)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="X47" s="4" t="e">
+        <f>(X46/$AB$46)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y47" s="4" t="e">
+        <f t="shared" ref="Y47:AA47" si="51">(Y46/$AB$46)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z47" s="4" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA47" s="4" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB47" s="4" t="e">
+        <f>SUM(X47:AA47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -20313,13 +21339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C8EEC3-FEEE-42C0-AABE-BBC01FE2FDD8}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -20333,7 +21359,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -20347,7 +21373,7 @@
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -20361,7 +21387,7 @@
         <v>19.444444444444446</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -20375,7 +21401,7 @@
         <v>38.888888888888893</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -20389,7 +21415,7 @@
         <v>30.555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -20403,7 +21429,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -20417,7 +21443,7 @@
         <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -20431,7 +21457,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -20445,7 +21471,7 @@
         <v>54.761904761904766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -20459,7 +21485,7 @@
         <v>2.6315789473684212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -20473,7 +21499,7 @@
         <v>26.315789473684216</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -20487,7 +21513,7 @@
         <v>26.315789473684216</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -20501,7 +21527,7 @@
         <v>44.736842105263158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -20515,7 +21541,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -20529,7 +21555,7 @@
         <v>7.4074074074074066</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -20543,7 +21569,7 @@
         <v>14.814814814814813</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -20563,6 +21589,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CE4804-56FF-4B75-8CE2-440F210167EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BF3957-1D59-8547-B06D-6A1DD7A7DBDC}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -20570,9 +21610,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -20583,7 +21623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20594,7 +21634,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20605,7 +21645,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -20616,7 +21656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -20627,7 +21667,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -20638,7 +21678,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -20649,7 +21689,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -20660,7 +21700,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -20671,7 +21711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -20682,7 +21722,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -20693,7 +21733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -20704,7 +21744,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -20715,7 +21755,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -20726,7 +21766,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -20737,7 +21777,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -20748,7 +21788,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -20759,7 +21799,7 @@
         <v>37.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -20770,7 +21810,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -20781,7 +21821,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -20792,7 +21832,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -20803,7 +21843,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -20814,7 +21854,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -20825,7 +21865,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -20836,7 +21876,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -20852,7 +21892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -20860,9 +21900,9 @@
       <selection activeCell="A500" sqref="A500:D525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20876,7 +21916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20890,7 +21930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20904,7 +21944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -20918,7 +21958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -20932,7 +21972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -20946,7 +21986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -20960,7 +22000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20974,7 +22014,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -20988,7 +22028,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -21002,7 +22042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -21016,7 +22056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -21030,7 +22070,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -21044,7 +22084,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -21058,7 +22098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -21072,7 +22112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -21086,7 +22126,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -21100,7 +22140,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -21114,7 +22154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -21128,7 +22168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -21142,7 +22182,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -21156,7 +22196,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -21170,7 +22210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -21184,7 +22224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -21198,7 +22238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -21212,7 +22252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -21226,7 +22266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -21240,7 +22280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -21254,7 +22294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -21268,7 +22308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -21282,7 +22322,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -21296,7 +22336,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -21310,7 +22350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C817938-A088-49CE-8621-49CE463E20C4}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F256520-D2F9-42ED-B22E-E8AE556E8726}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="88">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -241,31 +241,7 @@
     <t>Physidae</t>
   </si>
   <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value </t>
-  </si>
-  <si>
     <t>pH</t>
-  </si>
-  <si>
-    <t>Cond.</t>
-  </si>
-  <si>
-    <t>Temp.</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Cont_I</t>
-  </si>
-  <si>
-    <t>Cont_F</t>
   </si>
   <si>
     <t>Brown</t>
@@ -320,6 +296,18 @@
   </si>
   <si>
     <t>Richness/diversity</t>
+  </si>
+  <si>
+    <t>Stevensville</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
@@ -743,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -755,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -772,7 +760,7 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -801,7 +789,7 @@
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -830,7 +818,7 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -859,7 +847,7 @@
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -888,7 +876,7 @@
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -917,7 +905,7 @@
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -946,7 +934,7 @@
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -975,7 +963,7 @@
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1004,7 +992,7 @@
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1033,7 +1021,7 @@
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1062,7 +1050,7 @@
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1091,7 +1079,7 @@
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1120,7 +1108,7 @@
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1149,7 +1137,7 @@
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1178,7 +1166,7 @@
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1207,7 +1195,7 @@
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1236,7 +1224,7 @@
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1265,7 +1253,7 @@
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1294,7 +1282,7 @@
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1323,7 +1311,7 @@
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1352,7 +1340,7 @@
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1381,7 +1369,7 @@
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1410,7 +1398,7 @@
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1439,7 +1427,7 @@
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1468,7 +1456,7 @@
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1497,7 +1485,7 @@
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1526,7 +1514,7 @@
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1555,7 +1543,7 @@
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1584,7 +1572,7 @@
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1613,7 +1601,7 @@
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1642,7 +1630,7 @@
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1671,7 +1659,7 @@
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1700,7 +1688,7 @@
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1729,7 +1717,7 @@
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1758,7 +1746,7 @@
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1816,7 +1804,7 @@
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1845,7 +1833,7 @@
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1874,7 +1862,7 @@
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1903,7 +1891,7 @@
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1932,7 +1920,7 @@
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1961,7 +1949,7 @@
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1990,7 +1978,7 @@
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -2019,7 +2007,7 @@
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2048,7 +2036,7 @@
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2077,7 +2065,7 @@
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2106,7 +2094,7 @@
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -2135,7 +2123,7 @@
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -2164,7 +2152,7 @@
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2193,7 +2181,7 @@
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2222,7 +2210,7 @@
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2251,7 +2239,7 @@
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2280,7 +2268,7 @@
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2309,7 +2297,7 @@
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2338,7 +2326,7 @@
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2367,7 +2355,7 @@
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2396,7 +2384,7 @@
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2425,7 +2413,7 @@
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2454,7 +2442,7 @@
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2483,7 +2471,7 @@
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2512,7 +2500,7 @@
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2541,7 +2529,7 @@
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2570,7 +2558,7 @@
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2599,7 +2587,7 @@
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2628,7 +2616,7 @@
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2657,7 +2645,7 @@
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2686,7 +2674,7 @@
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2715,7 +2703,7 @@
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2744,7 +2732,7 @@
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2773,7 +2761,7 @@
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2802,7 +2790,7 @@
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2831,7 +2819,7 @@
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2860,7 +2848,7 @@
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2889,7 +2877,7 @@
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2918,7 +2906,7 @@
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2947,7 +2935,7 @@
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2976,7 +2964,7 @@
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -3005,7 +2993,7 @@
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -3034,7 +3022,7 @@
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -3063,7 +3051,7 @@
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -3092,7 +3080,7 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -3121,7 +3109,7 @@
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -3150,7 +3138,7 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -3179,7 +3167,7 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3208,7 +3196,7 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3237,7 +3225,7 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3266,7 +3254,7 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -3295,7 +3283,7 @@
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -3324,7 +3312,7 @@
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3353,7 +3341,7 @@
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3382,7 +3370,7 @@
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -3411,7 +3399,7 @@
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3440,7 +3428,7 @@
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -3469,7 +3457,7 @@
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -3498,7 +3486,7 @@
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -3556,7 +3544,7 @@
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -3585,7 +3573,7 @@
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -3614,7 +3602,7 @@
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -3643,7 +3631,7 @@
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -3672,7 +3660,7 @@
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -3701,7 +3689,7 @@
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -3730,7 +3718,7 @@
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3759,7 +3747,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -3788,7 +3776,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -3817,7 +3805,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3846,7 +3834,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3875,7 +3863,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3904,7 +3892,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3933,7 +3921,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3962,7 +3950,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3991,7 +3979,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -4020,7 +4008,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -4049,7 +4037,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -4078,7 +4066,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -4107,7 +4095,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -4136,7 +4124,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -4165,7 +4153,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -4194,7 +4182,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -4223,7 +4211,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -4252,7 +4240,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -4281,7 +4269,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -4310,7 +4298,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -4339,7 +4327,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -4368,7 +4356,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -4397,7 +4385,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -4426,7 +4414,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -4455,7 +4443,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -4484,7 +4472,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -4513,7 +4501,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -4542,7 +4530,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -4571,7 +4559,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -4600,7 +4588,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -4629,7 +4617,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -4658,7 +4646,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -4687,7 +4675,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -4716,7 +4704,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -4745,7 +4733,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -4774,7 +4762,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -4803,7 +4791,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -4832,7 +4820,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -4861,7 +4849,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -4890,7 +4878,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -4919,7 +4907,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -4948,7 +4936,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -4977,7 +4965,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -5006,7 +4994,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -5035,7 +5023,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -5064,7 +5052,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -5093,7 +5081,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -5122,7 +5110,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -5151,7 +5139,7 @@
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
         <v>31</v>
@@ -5180,7 +5168,7 @@
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
         <v>31</v>
@@ -5209,7 +5197,7 @@
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
         <v>31</v>
@@ -5238,7 +5226,7 @@
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
@@ -5267,7 +5255,7 @@
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
         <v>31</v>
@@ -5296,7 +5284,7 @@
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
         <v>31</v>
@@ -5325,7 +5313,7 @@
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
         <v>31</v>
@@ -5354,7 +5342,7 @@
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
@@ -5383,7 +5371,7 @@
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
@@ -5412,7 +5400,7 @@
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B162" t="s">
         <v>31</v>
@@ -5441,7 +5429,7 @@
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B163" t="s">
         <v>31</v>
@@ -5470,7 +5458,7 @@
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B164" t="s">
         <v>31</v>
@@ -5499,7 +5487,7 @@
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B165" t="s">
         <v>31</v>
@@ -5528,7 +5516,7 @@
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
@@ -5557,7 +5545,7 @@
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B167" t="s">
         <v>31</v>
@@ -5586,7 +5574,7 @@
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
         <v>31</v>
@@ -5615,7 +5603,7 @@
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B169" t="s">
         <v>31</v>
@@ -5644,7 +5632,7 @@
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B170" t="s">
         <v>31</v>
@@ -5673,7 +5661,7 @@
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
@@ -5702,7 +5690,7 @@
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B172" t="s">
         <v>31</v>
@@ -5731,7 +5719,7 @@
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B173" t="s">
         <v>31</v>
@@ -5760,7 +5748,7 @@
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
@@ -5789,7 +5777,7 @@
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
@@ -5818,7 +5806,7 @@
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
         <v>31</v>
@@ -5847,7 +5835,7 @@
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
@@ -5876,7 +5864,7 @@
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B178" t="s">
         <v>31</v>
@@ -5905,7 +5893,7 @@
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B179" t="s">
         <v>31</v>
@@ -5934,7 +5922,7 @@
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
@@ -5963,7 +5951,7 @@
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B181" t="s">
         <v>31</v>
@@ -5992,7 +5980,7 @@
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
@@ -6021,7 +6009,7 @@
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
@@ -6050,7 +6038,7 @@
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
@@ -6079,7 +6067,7 @@
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B185" t="s">
         <v>31</v>
@@ -6108,7 +6096,7 @@
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
         <v>31</v>
@@ -6137,7 +6125,7 @@
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B187" t="s">
         <v>31</v>
@@ -6166,7 +6154,7 @@
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -6195,7 +6183,7 @@
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B189" t="s">
         <v>31</v>
@@ -6224,7 +6212,7 @@
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B190" t="s">
         <v>31</v>
@@ -6253,7 +6241,7 @@
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B191" t="s">
         <v>31</v>
@@ -6282,7 +6270,7 @@
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
         <v>31</v>
@@ -6311,7 +6299,7 @@
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
         <v>31</v>
@@ -6340,7 +6328,7 @@
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B194" t="s">
         <v>31</v>
@@ -6369,7 +6357,7 @@
     </row>
     <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B195" t="s">
         <v>31</v>
@@ -6398,7 +6386,7 @@
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B196" t="s">
         <v>31</v>
@@ -6427,7 +6415,7 @@
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B197" t="s">
         <v>31</v>
@@ -6456,7 +6444,7 @@
     </row>
     <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B198" t="s">
         <v>31</v>
@@ -6485,7 +6473,7 @@
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B199" t="s">
         <v>31</v>
@@ -6514,7 +6502,7 @@
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B200" t="s">
         <v>31</v>
@@ -6543,7 +6531,7 @@
     </row>
     <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B201" t="s">
         <v>31</v>
@@ -6572,7 +6560,7 @@
     </row>
     <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B202" t="s">
         <v>31</v>
@@ -6601,7 +6589,7 @@
     </row>
     <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B203" t="s">
         <v>31</v>
@@ -6630,7 +6618,7 @@
     </row>
     <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B204" t="s">
         <v>31</v>
@@ -6659,7 +6647,7 @@
     </row>
     <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B205" t="s">
         <v>31</v>
@@ -6688,7 +6676,7 @@
     </row>
     <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
         <v>31</v>
@@ -6717,7 +6705,7 @@
     </row>
     <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B207" t="s">
         <v>31</v>
@@ -6746,7 +6734,7 @@
     </row>
     <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B208" t="s">
         <v>31</v>
@@ -6775,7 +6763,7 @@
     </row>
     <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B209" t="s">
         <v>31</v>
@@ -6804,7 +6792,7 @@
     </row>
     <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
         <v>31</v>
@@ -6833,7 +6821,7 @@
     </row>
     <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
         <v>31</v>
@@ -6862,7 +6850,7 @@
     </row>
     <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s">
         <v>31</v>
@@ -6891,7 +6879,7 @@
     </row>
     <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B213" t="s">
         <v>31</v>
@@ -6920,7 +6908,7 @@
     </row>
     <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B214" t="s">
         <v>31</v>
@@ -6949,7 +6937,7 @@
     </row>
     <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
         <v>31</v>
@@ -6978,7 +6966,7 @@
     </row>
     <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B216" t="s">
         <v>31</v>
@@ -7007,7 +6995,7 @@
     </row>
     <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B217" t="s">
         <v>31</v>
@@ -7036,7 +7024,7 @@
     </row>
     <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B218" t="s">
         <v>31</v>
@@ -7065,7 +7053,7 @@
     </row>
     <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B219" t="s">
         <v>31</v>
@@ -7094,7 +7082,7 @@
     </row>
     <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B220" t="s">
         <v>31</v>
@@ -7123,7 +7111,7 @@
     </row>
     <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B221" t="s">
         <v>31</v>
@@ -7152,7 +7140,7 @@
     </row>
     <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B222" t="s">
         <v>31</v>
@@ -7181,7 +7169,7 @@
     </row>
     <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B223" t="s">
         <v>31</v>
@@ -7210,7 +7198,7 @@
     </row>
     <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B224" t="s">
         <v>31</v>
@@ -7239,7 +7227,7 @@
     </row>
     <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B225" t="s">
         <v>31</v>
@@ -7268,7 +7256,7 @@
     </row>
     <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B226" t="s">
         <v>31</v>
@@ -7297,7 +7285,7 @@
     </row>
     <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B227" t="s">
         <v>31</v>
@@ -7326,7 +7314,7 @@
     </row>
     <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B228" t="s">
         <v>31</v>
@@ -7355,7 +7343,7 @@
     </row>
     <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s">
         <v>31</v>
@@ -7384,7 +7372,7 @@
     </row>
     <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B230" t="s">
         <v>31</v>
@@ -7413,7 +7401,7 @@
     </row>
     <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B231" t="s">
         <v>31</v>
@@ -7442,7 +7430,7 @@
     </row>
     <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B232" t="s">
         <v>31</v>
@@ -7471,7 +7459,7 @@
     </row>
     <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
         <v>31</v>
@@ -7500,7 +7488,7 @@
     </row>
     <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B234" t="s">
         <v>31</v>
@@ -7529,7 +7517,7 @@
     </row>
     <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B235" t="s">
         <v>31</v>
@@ -7558,7 +7546,7 @@
     </row>
     <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B236" t="s">
         <v>31</v>
@@ -7587,7 +7575,7 @@
     </row>
     <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B237" t="s">
         <v>31</v>
@@ -7616,7 +7604,7 @@
     </row>
     <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B238" t="s">
         <v>31</v>
@@ -7645,7 +7633,7 @@
     </row>
     <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B239" t="s">
         <v>31</v>
@@ -7674,7 +7662,7 @@
     </row>
     <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B240" t="s">
         <v>31</v>
@@ -7703,7 +7691,7 @@
     </row>
     <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B241" t="s">
         <v>31</v>
@@ -7732,7 +7720,7 @@
     </row>
     <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B242" t="s">
         <v>31</v>
@@ -7761,7 +7749,7 @@
     </row>
     <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B243" t="s">
         <v>31</v>
@@ -7790,7 +7778,7 @@
     </row>
     <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B244" t="s">
         <v>31</v>
@@ -7819,7 +7807,7 @@
     </row>
     <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B245" t="s">
         <v>31</v>
@@ -7848,7 +7836,7 @@
     </row>
     <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s">
         <v>31</v>
@@ -7877,7 +7865,7 @@
     </row>
     <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B247" t="s">
         <v>31</v>
@@ -7906,7 +7894,7 @@
     </row>
     <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B248" t="s">
         <v>31</v>
@@ -7935,7 +7923,7 @@
     </row>
     <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B249" t="s">
         <v>31</v>
@@ -7964,7 +7952,7 @@
     </row>
     <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B250" t="s">
         <v>31</v>
@@ -7993,7 +7981,7 @@
     </row>
     <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B251" t="s">
         <v>31</v>
@@ -8022,7 +8010,7 @@
     </row>
     <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B252" t="s">
         <v>31</v>
@@ -8051,7 +8039,7 @@
     </row>
     <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B253" t="s">
         <v>31</v>
@@ -8080,7 +8068,7 @@
     </row>
     <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B254" t="s">
         <v>31</v>
@@ -8109,7 +8097,7 @@
     </row>
     <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B255" t="s">
         <v>31</v>
@@ -8138,7 +8126,7 @@
     </row>
     <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B256" t="s">
         <v>31</v>
@@ -8167,7 +8155,7 @@
     </row>
     <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B257" t="s">
         <v>31</v>
@@ -8196,7 +8184,7 @@
     </row>
     <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B258" t="s">
         <v>31</v>
@@ -8225,7 +8213,7 @@
     </row>
     <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B259" t="s">
         <v>31</v>
@@ -8254,7 +8242,7 @@
     </row>
     <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B260" t="s">
         <v>31</v>
@@ -8283,7 +8271,7 @@
     </row>
     <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B261" t="s">
         <v>31</v>
@@ -8312,7 +8300,7 @@
     </row>
     <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B262" t="s">
         <v>31</v>
@@ -8341,7 +8329,7 @@
     </row>
     <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B263" t="s">
         <v>31</v>
@@ -8370,7 +8358,7 @@
     </row>
     <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B264" t="s">
         <v>31</v>
@@ -8399,7 +8387,7 @@
     </row>
     <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B265" t="s">
         <v>31</v>
@@ -8428,7 +8416,7 @@
     </row>
     <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B266" t="s">
         <v>31</v>
@@ -8457,7 +8445,7 @@
     </row>
     <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B267" t="s">
         <v>31</v>
@@ -8486,7 +8474,7 @@
     </row>
     <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B268" t="s">
         <v>31</v>
@@ -8515,7 +8503,7 @@
     </row>
     <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B269" t="s">
         <v>31</v>
@@ -8544,7 +8532,7 @@
     </row>
     <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B270" t="s">
         <v>31</v>
@@ -8573,7 +8561,7 @@
     </row>
     <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B271" t="s">
         <v>31</v>
@@ -8602,7 +8590,7 @@
     </row>
     <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B272" t="s">
         <v>31</v>
@@ -8631,7 +8619,7 @@
     </row>
     <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B273" t="s">
         <v>31</v>
@@ -8660,7 +8648,7 @@
     </row>
     <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B274" t="s">
         <v>31</v>
@@ -8689,7 +8677,7 @@
     </row>
     <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B275" t="s">
         <v>31</v>
@@ -8718,7 +8706,7 @@
     </row>
     <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B276" t="s">
         <v>31</v>
@@ -8747,7 +8735,7 @@
     </row>
     <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B277" t="s">
         <v>31</v>
@@ -8776,7 +8764,7 @@
     </row>
     <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B278" t="s">
         <v>31</v>
@@ -8805,7 +8793,7 @@
     </row>
     <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B279" t="s">
         <v>31</v>
@@ -8834,7 +8822,7 @@
     </row>
     <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B280" t="s">
         <v>31</v>
@@ -8863,7 +8851,7 @@
     </row>
     <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B281" t="s">
         <v>31</v>
@@ -8892,7 +8880,7 @@
     </row>
     <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B282" t="s">
         <v>31</v>
@@ -8921,7 +8909,7 @@
     </row>
     <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B283" t="s">
         <v>31</v>
@@ -8950,7 +8938,7 @@
     </row>
     <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B284" t="s">
         <v>31</v>
@@ -8979,7 +8967,7 @@
     </row>
     <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B285" t="s">
         <v>31</v>
@@ -9008,7 +8996,7 @@
     </row>
     <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B286" t="s">
         <v>31</v>
@@ -9037,7 +9025,7 @@
     </row>
     <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B287" t="s">
         <v>31</v>
@@ -9066,7 +9054,7 @@
     </row>
     <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B288" t="s">
         <v>31</v>
@@ -9095,7 +9083,7 @@
     </row>
     <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B289" t="s">
         <v>31</v>
@@ -9124,7 +9112,7 @@
     </row>
     <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B290" t="s">
         <v>31</v>
@@ -9153,7 +9141,7 @@
     </row>
     <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B291" t="s">
         <v>31</v>
@@ -9182,7 +9170,7 @@
     </row>
     <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B292" t="s">
         <v>31</v>
@@ -9211,7 +9199,7 @@
     </row>
     <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B293" t="s">
         <v>31</v>
@@ -9240,7 +9228,7 @@
     </row>
     <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B294" t="s">
         <v>31</v>
@@ -9269,7 +9257,7 @@
     </row>
     <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B295" t="s">
         <v>31</v>
@@ -9298,7 +9286,7 @@
     </row>
     <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B296" t="s">
         <v>31</v>
@@ -9327,7 +9315,7 @@
     </row>
     <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B297" t="s">
         <v>31</v>
@@ -9356,7 +9344,7 @@
     </row>
     <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B298" t="s">
         <v>31</v>
@@ -9385,7 +9373,7 @@
     </row>
     <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B299" t="s">
         <v>31</v>
@@ -9414,7 +9402,7 @@
     </row>
     <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B300" t="s">
         <v>31</v>
@@ -9443,7 +9431,7 @@
     </row>
     <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B301" t="s">
         <v>31</v>
@@ -9472,7 +9460,7 @@
     </row>
     <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B302" t="s">
         <v>31</v>
@@ -9501,7 +9489,7 @@
     </row>
     <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B303" t="s">
         <v>31</v>
@@ -9530,7 +9518,7 @@
     </row>
     <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B304" t="s">
         <v>40</v>
@@ -9559,7 +9547,7 @@
     </row>
     <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B305" t="s">
         <v>40</v>
@@ -9588,7 +9576,7 @@
     </row>
     <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B306" t="s">
         <v>40</v>
@@ -9617,7 +9605,7 @@
     </row>
     <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B307" t="s">
         <v>40</v>
@@ -9646,7 +9634,7 @@
     </row>
     <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B308" t="s">
         <v>40</v>
@@ -9675,7 +9663,7 @@
     </row>
     <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B309" t="s">
         <v>40</v>
@@ -9704,7 +9692,7 @@
     </row>
     <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B310" t="s">
         <v>40</v>
@@ -9733,7 +9721,7 @@
     </row>
     <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B311" t="s">
         <v>40</v>
@@ -9762,7 +9750,7 @@
     </row>
     <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B312" t="s">
         <v>40</v>
@@ -9791,7 +9779,7 @@
     </row>
     <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B313" t="s">
         <v>40</v>
@@ -9820,7 +9808,7 @@
     </row>
     <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B314" t="s">
         <v>40</v>
@@ -9849,7 +9837,7 @@
     </row>
     <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B315" t="s">
         <v>40</v>
@@ -9878,7 +9866,7 @@
     </row>
     <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B316" t="s">
         <v>40</v>
@@ -9907,7 +9895,7 @@
     </row>
     <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B317" t="s">
         <v>40</v>
@@ -9936,7 +9924,7 @@
     </row>
     <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B318" t="s">
         <v>40</v>
@@ -9965,7 +9953,7 @@
     </row>
     <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B319" t="s">
         <v>40</v>
@@ -9994,7 +9982,7 @@
     </row>
     <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B320" t="s">
         <v>40</v>
@@ -10023,7 +10011,7 @@
     </row>
     <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B321" t="s">
         <v>40</v>
@@ -10052,7 +10040,7 @@
     </row>
     <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B322" t="s">
         <v>40</v>
@@ -10081,7 +10069,7 @@
     </row>
     <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B323" t="s">
         <v>40</v>
@@ -10110,7 +10098,7 @@
     </row>
     <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B324" t="s">
         <v>40</v>
@@ -10139,7 +10127,7 @@
     </row>
     <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B325" t="s">
         <v>40</v>
@@ -10168,7 +10156,7 @@
     </row>
     <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B326" t="s">
         <v>40</v>
@@ -10197,7 +10185,7 @@
     </row>
     <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B327" t="s">
         <v>40</v>
@@ -10226,7 +10214,7 @@
     </row>
     <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B328" t="s">
         <v>40</v>
@@ -10255,7 +10243,7 @@
     </row>
     <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B329" t="s">
         <v>40</v>
@@ -10284,7 +10272,7 @@
     </row>
     <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B330" t="s">
         <v>40</v>
@@ -10313,7 +10301,7 @@
     </row>
     <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B331" t="s">
         <v>40</v>
@@ -10342,7 +10330,7 @@
     </row>
     <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B332" t="s">
         <v>40</v>
@@ -10371,7 +10359,7 @@
     </row>
     <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B333" t="s">
         <v>40</v>
@@ -10400,7 +10388,7 @@
     </row>
     <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B334" t="s">
         <v>40</v>
@@ -10429,7 +10417,7 @@
     </row>
     <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B335" t="s">
         <v>40</v>
@@ -10458,7 +10446,7 @@
     </row>
     <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B336" t="s">
         <v>40</v>
@@ -10487,7 +10475,7 @@
     </row>
     <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B337" t="s">
         <v>40</v>
@@ -10516,7 +10504,7 @@
     </row>
     <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B338" t="s">
         <v>40</v>
@@ -10545,7 +10533,7 @@
     </row>
     <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B339" t="s">
         <v>40</v>
@@ -10574,7 +10562,7 @@
     </row>
     <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B340" t="s">
         <v>40</v>
@@ -10603,7 +10591,7 @@
     </row>
     <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B341" t="s">
         <v>40</v>
@@ -10632,7 +10620,7 @@
     </row>
     <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B342" t="s">
         <v>40</v>
@@ -10661,7 +10649,7 @@
     </row>
     <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B343" t="s">
         <v>40</v>
@@ -10690,7 +10678,7 @@
     </row>
     <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B344" t="s">
         <v>40</v>
@@ -10719,7 +10707,7 @@
     </row>
     <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B345" t="s">
         <v>40</v>
@@ -10748,7 +10736,7 @@
     </row>
     <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B346" t="s">
         <v>40</v>
@@ -10777,7 +10765,7 @@
     </row>
     <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B347" t="s">
         <v>40</v>
@@ -10806,7 +10794,7 @@
     </row>
     <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B348" t="s">
         <v>40</v>
@@ -10835,7 +10823,7 @@
     </row>
     <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B349" t="s">
         <v>40</v>
@@ -10864,7 +10852,7 @@
     </row>
     <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B350" t="s">
         <v>40</v>
@@ -10893,7 +10881,7 @@
     </row>
     <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B351" t="s">
         <v>40</v>
@@ -10922,7 +10910,7 @@
     </row>
     <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B352" t="s">
         <v>40</v>
@@ -10951,7 +10939,7 @@
     </row>
     <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B353" t="s">
         <v>40</v>
@@ -10980,7 +10968,7 @@
     </row>
     <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B354" t="s">
         <v>40</v>
@@ -11009,7 +10997,7 @@
     </row>
     <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B355" t="s">
         <v>40</v>
@@ -11038,7 +11026,7 @@
     </row>
     <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B356" t="s">
         <v>40</v>
@@ -11067,7 +11055,7 @@
     </row>
     <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B357" t="s">
         <v>40</v>
@@ -11096,7 +11084,7 @@
     </row>
     <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B358" t="s">
         <v>40</v>
@@ -11125,7 +11113,7 @@
     </row>
     <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B359" t="s">
         <v>40</v>
@@ -11154,7 +11142,7 @@
     </row>
     <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B360" t="s">
         <v>40</v>
@@ -11183,7 +11171,7 @@
     </row>
     <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B361" t="s">
         <v>40</v>
@@ -11212,7 +11200,7 @@
     </row>
     <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B362" t="s">
         <v>40</v>
@@ -11241,7 +11229,7 @@
     </row>
     <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B363" t="s">
         <v>40</v>
@@ -11270,7 +11258,7 @@
     </row>
     <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B364" t="s">
         <v>40</v>
@@ -11299,7 +11287,7 @@
     </row>
     <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B365" t="s">
         <v>40</v>
@@ -11328,7 +11316,7 @@
     </row>
     <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B366" t="s">
         <v>40</v>
@@ -11357,7 +11345,7 @@
     </row>
     <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B367" t="s">
         <v>40</v>
@@ -11386,7 +11374,7 @@
     </row>
     <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B368" t="s">
         <v>40</v>
@@ -11415,7 +11403,7 @@
     </row>
     <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B369" t="s">
         <v>40</v>
@@ -11444,7 +11432,7 @@
     </row>
     <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B370" t="s">
         <v>40</v>
@@ -11473,7 +11461,7 @@
     </row>
     <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B371" t="s">
         <v>40</v>
@@ -11502,7 +11490,7 @@
     </row>
     <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B372" t="s">
         <v>40</v>
@@ -11531,7 +11519,7 @@
     </row>
     <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B373" t="s">
         <v>40</v>
@@ -11560,7 +11548,7 @@
     </row>
     <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B374" t="s">
         <v>40</v>
@@ -11589,7 +11577,7 @@
     </row>
     <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B375" t="s">
         <v>40</v>
@@ -11618,7 +11606,7 @@
     </row>
     <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B376" t="s">
         <v>40</v>
@@ -11647,7 +11635,7 @@
     </row>
     <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B377" t="s">
         <v>40</v>
@@ -11676,7 +11664,7 @@
     </row>
     <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B378" t="s">
         <v>40</v>
@@ -11705,7 +11693,7 @@
     </row>
     <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B379" t="s">
         <v>40</v>
@@ -11734,7 +11722,7 @@
     </row>
     <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B380" t="s">
         <v>40</v>
@@ -11763,7 +11751,7 @@
     </row>
     <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B381" t="s">
         <v>40</v>
@@ -11792,7 +11780,7 @@
     </row>
     <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B382" t="s">
         <v>40</v>
@@ -11821,7 +11809,7 @@
     </row>
     <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B383" t="s">
         <v>40</v>
@@ -11850,7 +11838,7 @@
     </row>
     <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B384" t="s">
         <v>40</v>
@@ -11879,7 +11867,7 @@
     </row>
     <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B385" t="s">
         <v>40</v>
@@ -11908,7 +11896,7 @@
     </row>
     <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B386" t="s">
         <v>40</v>
@@ -11937,7 +11925,7 @@
     </row>
     <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B387" t="s">
         <v>40</v>
@@ -11966,7 +11954,7 @@
     </row>
     <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B388" t="s">
         <v>40</v>
@@ -11995,7 +11983,7 @@
     </row>
     <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B389" t="s">
         <v>40</v>
@@ -12024,7 +12012,7 @@
     </row>
     <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B390" t="s">
         <v>40</v>
@@ -12053,7 +12041,7 @@
     </row>
     <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B391" t="s">
         <v>40</v>
@@ -12082,7 +12070,7 @@
     </row>
     <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B392" t="s">
         <v>40</v>
@@ -12111,7 +12099,7 @@
     </row>
     <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B393" t="s">
         <v>40</v>
@@ -12140,7 +12128,7 @@
     </row>
     <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B394" t="s">
         <v>40</v>
@@ -12169,7 +12157,7 @@
     </row>
     <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B395" t="s">
         <v>40</v>
@@ -12198,7 +12186,7 @@
     </row>
     <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B396" t="s">
         <v>40</v>
@@ -12227,7 +12215,7 @@
     </row>
     <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B397" t="s">
         <v>40</v>
@@ -12256,7 +12244,7 @@
     </row>
     <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B398" t="s">
         <v>40</v>
@@ -12285,7 +12273,7 @@
     </row>
     <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B399" t="s">
         <v>40</v>
@@ -12314,7 +12302,7 @@
     </row>
     <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B400" t="s">
         <v>40</v>
@@ -12343,7 +12331,7 @@
     </row>
     <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B401" t="s">
         <v>40</v>
@@ -12372,7 +12360,7 @@
     </row>
     <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B402" t="s">
         <v>40</v>
@@ -12401,7 +12389,7 @@
     </row>
     <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B403" t="s">
         <v>40</v>
@@ -12430,7 +12418,7 @@
     </row>
     <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B404" t="s">
         <v>40</v>
@@ -12459,7 +12447,7 @@
     </row>
     <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B405" t="s">
         <v>40</v>
@@ -12488,7 +12476,7 @@
     </row>
     <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B406" t="s">
         <v>40</v>
@@ -12517,7 +12505,7 @@
     </row>
     <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B407" t="s">
         <v>40</v>
@@ -12546,7 +12534,7 @@
     </row>
     <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B408" t="s">
         <v>40</v>
@@ -12575,7 +12563,7 @@
     </row>
     <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B409" t="s">
         <v>40</v>
@@ -12604,7 +12592,7 @@
     </row>
     <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B410" t="s">
         <v>40</v>
@@ -12633,7 +12621,7 @@
     </row>
     <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B411" t="s">
         <v>40</v>
@@ -12662,7 +12650,7 @@
     </row>
     <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B412" t="s">
         <v>40</v>
@@ -12691,7 +12679,7 @@
     </row>
     <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B413" t="s">
         <v>40</v>
@@ -12720,7 +12708,7 @@
     </row>
     <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B414" t="s">
         <v>40</v>
@@ -12749,7 +12737,7 @@
     </row>
     <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B415" t="s">
         <v>40</v>
@@ -12778,7 +12766,7 @@
     </row>
     <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B416" t="s">
         <v>40</v>
@@ -12807,7 +12795,7 @@
     </row>
     <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B417" t="s">
         <v>40</v>
@@ -12836,7 +12824,7 @@
     </row>
     <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B418" t="s">
         <v>40</v>
@@ -12865,7 +12853,7 @@
     </row>
     <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B419" t="s">
         <v>40</v>
@@ -12894,7 +12882,7 @@
     </row>
     <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B420" t="s">
         <v>40</v>
@@ -12923,7 +12911,7 @@
     </row>
     <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B421" t="s">
         <v>40</v>
@@ -12952,7 +12940,7 @@
     </row>
     <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B422" t="s">
         <v>40</v>
@@ -12981,7 +12969,7 @@
     </row>
     <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B423" t="s">
         <v>40</v>
@@ -13010,7 +12998,7 @@
     </row>
     <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B424" t="s">
         <v>40</v>
@@ -13039,7 +13027,7 @@
     </row>
     <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B425" t="s">
         <v>40</v>
@@ -13068,7 +13056,7 @@
     </row>
     <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B426" t="s">
         <v>40</v>
@@ -13097,7 +13085,7 @@
     </row>
     <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B427" t="s">
         <v>40</v>
@@ -13126,7 +13114,7 @@
     </row>
     <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B428" t="s">
         <v>40</v>
@@ -13155,7 +13143,7 @@
     </row>
     <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B429" t="s">
         <v>40</v>
@@ -13184,7 +13172,7 @@
     </row>
     <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B430" t="s">
         <v>40</v>
@@ -13213,7 +13201,7 @@
     </row>
     <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B431" t="s">
         <v>40</v>
@@ -13242,7 +13230,7 @@
     </row>
     <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B432" t="s">
         <v>40</v>
@@ -13271,7 +13259,7 @@
     </row>
     <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B433" t="s">
         <v>40</v>
@@ -13300,7 +13288,7 @@
     </row>
     <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B434" t="s">
         <v>40</v>
@@ -13329,7 +13317,7 @@
     </row>
     <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B435" t="s">
         <v>40</v>
@@ -13358,7 +13346,7 @@
     </row>
     <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B436" t="s">
         <v>40</v>
@@ -13387,7 +13375,7 @@
     </row>
     <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B437" t="s">
         <v>40</v>
@@ -13416,7 +13404,7 @@
     </row>
     <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B438" t="s">
         <v>40</v>
@@ -13445,7 +13433,7 @@
     </row>
     <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B439" t="s">
         <v>40</v>
@@ -13474,7 +13462,7 @@
     </row>
     <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B440" t="s">
         <v>40</v>
@@ -13503,7 +13491,7 @@
     </row>
     <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B441" t="s">
         <v>40</v>
@@ -13532,7 +13520,7 @@
     </row>
     <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B442" t="s">
         <v>40</v>
@@ -13561,7 +13549,7 @@
     </row>
     <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B443" t="s">
         <v>40</v>
@@ -13590,7 +13578,7 @@
     </row>
     <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B444" t="s">
         <v>40</v>
@@ -13619,7 +13607,7 @@
     </row>
     <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B445" t="s">
         <v>40</v>
@@ -13648,7 +13636,7 @@
     </row>
     <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B446" t="s">
         <v>40</v>
@@ -13677,7 +13665,7 @@
     </row>
     <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B447" t="s">
         <v>40</v>
@@ -13706,7 +13694,7 @@
     </row>
     <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B448" t="s">
         <v>40</v>
@@ -13735,7 +13723,7 @@
     </row>
     <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B449" t="s">
         <v>40</v>
@@ -13764,7 +13752,7 @@
     </row>
     <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B450" t="s">
         <v>40</v>
@@ -13793,7 +13781,7 @@
     </row>
     <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B451" t="s">
         <v>40</v>
@@ -13822,7 +13810,7 @@
     </row>
     <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B452" t="s">
         <v>40</v>
@@ -13851,7 +13839,7 @@
     </row>
     <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B453" t="s">
         <v>40</v>
@@ -13880,7 +13868,7 @@
     </row>
     <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B454" t="s">
         <v>40</v>
@@ -13909,7 +13897,7 @@
     </row>
     <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B455" t="s">
         <v>40</v>
@@ -13938,7 +13926,7 @@
     </row>
     <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B456" t="s">
         <v>40</v>
@@ -13967,7 +13955,7 @@
     </row>
     <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B457" t="s">
         <v>40</v>
@@ -13996,7 +13984,7 @@
     </row>
     <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B458" t="s">
         <v>40</v>
@@ -14025,7 +14013,7 @@
     </row>
     <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B459" t="s">
         <v>40</v>
@@ -14054,7 +14042,7 @@
     </row>
     <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B460" t="s">
         <v>40</v>
@@ -14083,7 +14071,7 @@
     </row>
     <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B461" t="s">
         <v>40</v>
@@ -14112,7 +14100,7 @@
     </row>
     <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B462" t="s">
         <v>40</v>
@@ -14141,7 +14129,7 @@
     </row>
     <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B463" t="s">
         <v>40</v>
@@ -14170,7 +14158,7 @@
     </row>
     <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B464" t="s">
         <v>40</v>
@@ -14199,7 +14187,7 @@
     </row>
     <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B465" t="s">
         <v>40</v>
@@ -14228,7 +14216,7 @@
     </row>
     <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B466" t="s">
         <v>40</v>
@@ -14257,7 +14245,7 @@
     </row>
     <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B467" t="s">
         <v>40</v>
@@ -14286,7 +14274,7 @@
     </row>
     <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B468" t="s">
         <v>40</v>
@@ -14315,7 +14303,7 @@
     </row>
     <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B469" t="s">
         <v>40</v>
@@ -14344,7 +14332,7 @@
     </row>
     <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B470" t="s">
         <v>40</v>
@@ -14373,7 +14361,7 @@
     </row>
     <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B471" t="s">
         <v>40</v>
@@ -14402,7 +14390,7 @@
     </row>
     <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B472" t="s">
         <v>40</v>
@@ -14431,7 +14419,7 @@
     </row>
     <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B473" t="s">
         <v>40</v>
@@ -14460,7 +14448,7 @@
     </row>
     <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B474" t="s">
         <v>40</v>
@@ -14489,7 +14477,7 @@
     </row>
     <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B475" t="s">
         <v>40</v>
@@ -14518,7 +14506,7 @@
     </row>
     <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B476" t="s">
         <v>40</v>
@@ -14547,7 +14535,7 @@
     </row>
     <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B477" t="s">
         <v>40</v>
@@ -14576,7 +14564,7 @@
     </row>
     <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B478" t="s">
         <v>40</v>
@@ -14605,7 +14593,7 @@
     </row>
     <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B479" t="s">
         <v>40</v>
@@ -14634,7 +14622,7 @@
     </row>
     <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B480" t="s">
         <v>40</v>
@@ -14663,7 +14651,7 @@
     </row>
     <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B481" t="s">
         <v>40</v>
@@ -14692,7 +14680,7 @@
     </row>
     <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B482" t="s">
         <v>40</v>
@@ -14721,7 +14709,7 @@
     </row>
     <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B483" t="s">
         <v>40</v>
@@ -14750,7 +14738,7 @@
     </row>
     <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B484" t="s">
         <v>40</v>
@@ -14779,7 +14767,7 @@
     </row>
     <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B485" t="s">
         <v>40</v>
@@ -14808,7 +14796,7 @@
     </row>
     <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B486" t="s">
         <v>40</v>
@@ -14837,7 +14825,7 @@
     </row>
     <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B487" t="s">
         <v>40</v>
@@ -14866,7 +14854,7 @@
     </row>
     <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B488" t="s">
         <v>40</v>
@@ -14895,7 +14883,7 @@
     </row>
     <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B489" t="s">
         <v>40</v>
@@ -14924,7 +14912,7 @@
     </row>
     <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B490" t="s">
         <v>40</v>
@@ -14953,7 +14941,7 @@
     </row>
     <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B491" t="s">
         <v>40</v>
@@ -14982,7 +14970,7 @@
     </row>
     <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B492" t="s">
         <v>40</v>
@@ -15011,7 +14999,7 @@
     </row>
     <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B493" t="s">
         <v>40</v>
@@ -15040,7 +15028,7 @@
     </row>
     <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B494" t="s">
         <v>40</v>
@@ -15069,7 +15057,7 @@
     </row>
     <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B495" t="s">
         <v>40</v>
@@ -15098,7 +15086,7 @@
     </row>
     <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B496" t="s">
         <v>40</v>
@@ -15127,7 +15115,7 @@
     </row>
     <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B497" t="s">
         <v>51</v>
@@ -15156,7 +15144,7 @@
     </row>
     <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B498" t="s">
         <v>51</v>
@@ -15185,7 +15173,7 @@
     </row>
     <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B499" t="s">
         <v>51</v>
@@ -15214,7 +15202,7 @@
     </row>
     <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B500" t="s">
         <v>51</v>
@@ -15243,7 +15231,7 @@
     </row>
     <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B501" t="s">
         <v>51</v>
@@ -15272,7 +15260,7 @@
     </row>
     <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B502" t="s">
         <v>51</v>
@@ -15301,7 +15289,7 @@
     </row>
     <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B503" t="s">
         <v>51</v>
@@ -15330,7 +15318,7 @@
     </row>
     <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B504" t="s">
         <v>51</v>
@@ -15359,7 +15347,7 @@
     </row>
     <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B505" t="s">
         <v>51</v>
@@ -15388,7 +15376,7 @@
     </row>
     <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B506" t="s">
         <v>51</v>
@@ -15417,7 +15405,7 @@
     </row>
     <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B507" t="s">
         <v>51</v>
@@ -15446,7 +15434,7 @@
     </row>
     <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B508" t="s">
         <v>51</v>
@@ -15475,7 +15463,7 @@
     </row>
     <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B509" t="s">
         <v>51</v>
@@ -15504,7 +15492,7 @@
     </row>
     <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B510" t="s">
         <v>51</v>
@@ -15533,7 +15521,7 @@
     </row>
     <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B511" t="s">
         <v>51</v>
@@ -15562,7 +15550,7 @@
     </row>
     <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B512" t="s">
         <v>51</v>
@@ -15591,7 +15579,7 @@
     </row>
     <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B513" t="s">
         <v>51</v>
@@ -15620,7 +15608,7 @@
     </row>
     <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B514" t="s">
         <v>51</v>
@@ -15649,7 +15637,7 @@
     </row>
     <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B515" t="s">
         <v>51</v>
@@ -15678,7 +15666,7 @@
     </row>
     <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B516" t="s">
         <v>51</v>
@@ -15707,7 +15695,7 @@
     </row>
     <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B517" t="s">
         <v>51</v>
@@ -15736,7 +15724,7 @@
     </row>
     <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B518" t="s">
         <v>51</v>
@@ -15765,7 +15753,7 @@
     </row>
     <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B519" t="s">
         <v>51</v>
@@ -15794,7 +15782,7 @@
     </row>
     <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B520" t="s">
         <v>51</v>
@@ -15823,7 +15811,7 @@
     </row>
     <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B521" t="s">
         <v>51</v>
@@ -15852,7 +15840,7 @@
     </row>
     <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B522" t="s">
         <v>51</v>
@@ -15881,7 +15869,7 @@
     </row>
     <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B523" t="s">
         <v>51</v>
@@ -15910,7 +15898,7 @@
     </row>
     <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B524" t="s">
         <v>51</v>
@@ -15939,7 +15927,7 @@
     </row>
     <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B525" t="s">
         <v>51</v>
@@ -15968,7 +15956,7 @@
     </row>
     <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B526" t="s">
         <v>51</v>
@@ -15997,7 +15985,7 @@
     </row>
     <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B527" t="s">
         <v>51</v>
@@ -16026,7 +16014,7 @@
     </row>
     <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B528" t="s">
         <v>51</v>
@@ -16055,7 +16043,7 @@
     </row>
     <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B529" t="s">
         <v>51</v>
@@ -16084,7 +16072,7 @@
     </row>
     <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B530" t="s">
         <v>51</v>
@@ -16113,7 +16101,7 @@
     </row>
     <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B531" t="s">
         <v>51</v>
@@ -16142,7 +16130,7 @@
     </row>
     <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B532" t="s">
         <v>51</v>
@@ -16171,7 +16159,7 @@
     </row>
     <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B533" t="s">
         <v>51</v>
@@ -16200,7 +16188,7 @@
     </row>
     <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B534" t="s">
         <v>51</v>
@@ -16229,7 +16217,7 @@
     </row>
     <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B535" t="s">
         <v>51</v>
@@ -16258,7 +16246,7 @@
     </row>
     <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B536" t="s">
         <v>51</v>
@@ -16287,7 +16275,7 @@
     </row>
     <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B537" t="s">
         <v>51</v>
@@ -16316,7 +16304,7 @@
     </row>
     <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B538" t="s">
         <v>51</v>
@@ -16345,7 +16333,7 @@
     </row>
     <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B539" t="s">
         <v>51</v>
@@ -16374,7 +16362,7 @@
     </row>
     <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B540" t="s">
         <v>51</v>
@@ -16403,7 +16391,7 @@
     </row>
     <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B541" t="s">
         <v>51</v>
@@ -16432,7 +16420,7 @@
     </row>
     <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B542" t="s">
         <v>51</v>
@@ -16461,7 +16449,7 @@
     </row>
     <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B543" t="s">
         <v>51</v>
@@ -16490,7 +16478,7 @@
     </row>
     <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B544" t="s">
         <v>51</v>
@@ -16519,7 +16507,7 @@
     </row>
     <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B545" t="s">
         <v>51</v>
@@ -16548,7 +16536,7 @@
     </row>
     <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B546" t="s">
         <v>51</v>
@@ -16577,7 +16565,7 @@
     </row>
     <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B547" t="s">
         <v>51</v>
@@ -16606,7 +16594,7 @@
     </row>
     <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B548" t="s">
         <v>51</v>
@@ -16635,7 +16623,7 @@
     </row>
     <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B549" t="s">
         <v>51</v>
@@ -16664,7 +16652,7 @@
     </row>
     <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B550" t="s">
         <v>51</v>
@@ -16693,7 +16681,7 @@
     </row>
     <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B551" t="s">
         <v>51</v>
@@ -16722,7 +16710,7 @@
     </row>
     <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B552" t="s">
         <v>51</v>
@@ -16751,7 +16739,7 @@
     </row>
     <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B553" t="s">
         <v>51</v>
@@ -16780,7 +16768,7 @@
     </row>
     <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B554" t="s">
         <v>51</v>
@@ -16809,7 +16797,7 @@
     </row>
     <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B555" t="s">
         <v>51</v>
@@ -16838,7 +16826,7 @@
     </row>
     <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B556" t="s">
         <v>51</v>
@@ -16867,7 +16855,7 @@
     </row>
     <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B557" t="s">
         <v>51</v>
@@ -16896,7 +16884,7 @@
     </row>
     <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B558" t="s">
         <v>51</v>
@@ -16925,7 +16913,7 @@
     </row>
     <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B559" t="s">
         <v>51</v>
@@ -16954,7 +16942,7 @@
     </row>
     <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B560" t="s">
         <v>51</v>
@@ -16983,7 +16971,7 @@
     </row>
     <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B561" t="s">
         <v>51</v>
@@ -17012,7 +17000,7 @@
     </row>
     <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B562" t="s">
         <v>51</v>
@@ -17041,7 +17029,7 @@
     </row>
     <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B563" t="s">
         <v>51</v>
@@ -17070,7 +17058,7 @@
     </row>
     <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B564" t="s">
         <v>51</v>
@@ -17099,7 +17087,7 @@
     </row>
     <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B565" t="s">
         <v>51</v>
@@ -17128,7 +17116,7 @@
     </row>
     <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B566" t="s">
         <v>51</v>
@@ -17157,7 +17145,7 @@
     </row>
     <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B567" t="s">
         <v>51</v>
@@ -17186,7 +17174,7 @@
     </row>
     <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B568" t="s">
         <v>51</v>
@@ -17215,7 +17203,7 @@
     </row>
     <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B569" t="s">
         <v>51</v>
@@ -17244,7 +17232,7 @@
     </row>
     <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B570" t="s">
         <v>51</v>
@@ -17273,7 +17261,7 @@
     </row>
     <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B571" t="s">
         <v>51</v>
@@ -17302,7 +17290,7 @@
     </row>
     <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B572" t="s">
         <v>51</v>
@@ -17331,7 +17319,7 @@
     </row>
     <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B573" t="s">
         <v>51</v>
@@ -17360,7 +17348,7 @@
     </row>
     <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B574" t="s">
         <v>51</v>
@@ -17389,7 +17377,7 @@
     </row>
     <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B575" t="s">
         <v>51</v>
@@ -17418,7 +17406,7 @@
     </row>
     <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B576" t="s">
         <v>51</v>
@@ -17447,7 +17435,7 @@
     </row>
     <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B577" t="s">
         <v>51</v>
@@ -17476,7 +17464,7 @@
     </row>
     <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B578" t="s">
         <v>51</v>
@@ -17505,7 +17493,7 @@
     </row>
     <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B579" t="s">
         <v>51</v>
@@ -17534,7 +17522,7 @@
     </row>
     <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B580" t="s">
         <v>51</v>
@@ -17563,7 +17551,7 @@
     </row>
     <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B581" t="s">
         <v>51</v>
@@ -17592,7 +17580,7 @@
     </row>
     <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B582" t="s">
         <v>51</v>
@@ -17621,7 +17609,7 @@
     </row>
     <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B583" t="s">
         <v>51</v>
@@ -17650,7 +17638,7 @@
     </row>
     <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B584" t="s">
         <v>51</v>
@@ -17679,7 +17667,7 @@
     </row>
     <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B585" t="s">
         <v>51</v>
@@ -17708,7 +17696,7 @@
     </row>
     <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B586" t="s">
         <v>51</v>
@@ -17737,7 +17725,7 @@
     </row>
     <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B587" t="s">
         <v>51</v>
@@ -17766,7 +17754,7 @@
     </row>
     <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B588" t="s">
         <v>51</v>
@@ -17795,7 +17783,7 @@
     </row>
     <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B589" t="s">
         <v>51</v>
@@ -17824,7 +17812,7 @@
     </row>
     <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B590" t="s">
         <v>51</v>
@@ -17853,7 +17841,7 @@
     </row>
     <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B591" t="s">
         <v>51</v>
@@ -17882,7 +17870,7 @@
     </row>
     <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B592" t="s">
         <v>51</v>
@@ -17911,7 +17899,7 @@
     </row>
     <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B593" t="s">
         <v>51</v>
@@ -17940,7 +17928,7 @@
     </row>
     <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B594" t="s">
         <v>51</v>
@@ -17969,7 +17957,7 @@
     </row>
     <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B595" t="s">
         <v>51</v>
@@ -17998,7 +17986,7 @@
     </row>
     <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B596" t="s">
         <v>51</v>
@@ -18027,7 +18015,7 @@
     </row>
     <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B597" t="s">
         <v>51</v>
@@ -18056,7 +18044,7 @@
     </row>
     <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B598" t="s">
         <v>51</v>
@@ -18085,7 +18073,7 @@
     </row>
     <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B599" t="s">
         <v>51</v>
@@ -18114,7 +18102,7 @@
     </row>
     <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B600" t="s">
         <v>51</v>
@@ -18143,7 +18131,7 @@
     </row>
     <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B601" t="s">
         <v>51</v>
@@ -18172,7 +18160,7 @@
     </row>
     <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B602" t="s">
         <v>51</v>
@@ -18201,7 +18189,7 @@
     </row>
     <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B603" t="s">
         <v>51</v>
@@ -18230,7 +18218,7 @@
     </row>
     <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B604" t="s">
         <v>51</v>
@@ -18259,7 +18247,7 @@
     </row>
     <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B605" t="s">
         <v>51</v>
@@ -18288,7 +18276,7 @@
     </row>
     <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B606" t="s">
         <v>51</v>
@@ -18317,7 +18305,7 @@
     </row>
     <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B607" t="s">
         <v>51</v>
@@ -18346,7 +18334,7 @@
     </row>
     <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B608" t="s">
         <v>51</v>
@@ -18375,7 +18363,7 @@
     </row>
     <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B609" t="s">
         <v>51</v>
@@ -18404,7 +18392,7 @@
     </row>
     <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B610" t="s">
         <v>51</v>
@@ -18433,7 +18421,7 @@
     </row>
     <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B611" t="s">
         <v>51</v>
@@ -18462,7 +18450,7 @@
     </row>
     <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B612" t="s">
         <v>51</v>
@@ -18491,7 +18479,7 @@
     </row>
     <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B613" t="s">
         <v>51</v>
@@ -18520,7 +18508,7 @@
     </row>
     <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B614" t="s">
         <v>51</v>
@@ -18549,7 +18537,7 @@
     </row>
     <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B615" t="s">
         <v>51</v>
@@ -18578,7 +18566,7 @@
     </row>
     <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B616" t="s">
         <v>51</v>
@@ -18607,7 +18595,7 @@
     </row>
     <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B617" t="s">
         <v>51</v>
@@ -18636,7 +18624,7 @@
     </row>
     <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B618" t="s">
         <v>51</v>
@@ -18665,7 +18653,7 @@
     </row>
     <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B619" t="s">
         <v>51</v>
@@ -18694,7 +18682,7 @@
     </row>
     <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B620" t="s">
         <v>51</v>
@@ -18723,7 +18711,7 @@
     </row>
     <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B621" t="s">
         <v>51</v>
@@ -18752,7 +18740,7 @@
     </row>
     <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B622" t="s">
         <v>51</v>
@@ -18781,7 +18769,7 @@
     </row>
     <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B623" t="s">
         <v>51</v>
@@ -18842,13 +18830,13 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -18860,7 +18848,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -18872,16 +18860,16 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -18893,7 +18881,7 @@
         <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
         <v>19</v>
@@ -18905,12 +18893,12 @@
         <v>9</v>
       </c>
       <c r="AA1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -18947,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -19084,7 +19072,7 @@
         <v>1.48</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" ref="X3:X9" si="5">S4/$C4</f>
+        <f t="shared" ref="X4:X9" si="5">S4/$C4</f>
         <v>0</v>
       </c>
       <c r="Y4" s="3">
@@ -19479,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -19491,7 +19479,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -19503,13 +19491,13 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s">
         <v>19</v>
@@ -19521,7 +19509,7 @@
         <v>9</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s">
         <v>19</v>
@@ -19533,7 +19521,7 @@
         <v>9</v>
       </c>
       <c r="AA13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -20095,7 +20083,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -20107,7 +20095,7 @@
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -20119,13 +20107,13 @@
         <v>9</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s">
         <v>19</v>
@@ -20137,7 +20125,7 @@
         <v>9</v>
       </c>
       <c r="V25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s">
         <v>19</v>
@@ -20149,12 +20137,12 @@
         <v>9</v>
       </c>
       <c r="AA25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -20191,7 +20179,7 @@
         <v>0.93023255813953487</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -20711,7 +20699,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -20723,7 +20711,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -20735,13 +20723,13 @@
         <v>9</v>
       </c>
       <c r="L37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q37" t="s">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s">
         <v>19</v>
@@ -20753,7 +20741,7 @@
         <v>9</v>
       </c>
       <c r="V37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s">
         <v>19</v>
@@ -20765,12 +20753,12 @@
         <v>9</v>
       </c>
       <c r="AA37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -20807,7 +20795,7 @@
         <v>0.3592814371257485</v>
       </c>
       <c r="P38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -21347,24 +21335,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -21375,10 +21363,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -21389,10 +21377,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -21403,13 +21391,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>30.555555555555554</v>
@@ -21417,7 +21405,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -21431,7 +21419,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -21445,7 +21433,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -21459,13 +21447,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>54.761904761904766</v>
@@ -21473,10 +21461,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -21487,10 +21475,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -21501,10 +21489,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -21515,13 +21503,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>44.736842105263158</v>
@@ -21529,10 +21517,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -21543,10 +21531,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -21557,10 +21545,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -21571,13 +21559,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
       </c>
       <c r="D17">
         <v>74.074074074074076</v>
@@ -21592,7 +21580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CE4804-56FF-4B75-8CE2-440F210167EE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -21604,287 +21592,419 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BF3957-1D59-8547-B06D-6A1DD7A7DBDC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>7.48</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>17.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>15.42</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>3.02</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C7">
-        <v>3.17</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>8.08</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>14.4</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>3.01</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>3.12</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C14">
-        <v>8.16</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C15">
-        <v>585</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C16">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>37.06</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>3.04</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>3.2</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>7.75</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>1700</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>20.399999999999999</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>35.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>3.01</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>3.19</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <v>34.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>34.799999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -21913,7 +22033,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F256520-D2F9-42ED-B22E-E8AE556E8726}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDFDD02-DCD3-4E0C-9C3D-7A4D9CD0511E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="89">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -309,6 +309,9 @@
   <si>
     <t>Temperature</t>
   </si>
+  <si>
+    <t>forest</t>
+  </si>
 </sst>
 </file>
 
@@ -417,9 +420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21592,418 +21595,529 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BF3957-1D59-8547-B06D-6A1DD7A7DBDC}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>20.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1551</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1738</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8.17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>23.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>23.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>23.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>86</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>583</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7.61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7.48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>7.45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>17.7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8.08</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7.71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>87</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>14.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>14.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>35.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>34.08</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>34.799999999999997</v>
       </c>
     </row>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDFDD02-DCD3-4E0C-9C3D-7A4D9CD0511E}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31437696-7716-4E59-BC7D-F86B28221AB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Macros!$A$1:$I$623</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="89">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -21597,8 +21597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BF3957-1D59-8547-B06D-6A1DD7A7DBDC}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22128,473 +22128,572 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D525"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>31</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
       <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
       <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
       <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>26.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>18</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
       <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>29</v>
       </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
       <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
       <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>25</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>25.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>51</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>17</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
       <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
         <v>23</v>
       </c>
     </row>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31437696-7716-4E59-BC7D-F86B28221AB2}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454ABB5A-1F71-4043-A039-393218B2F758}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -716,11 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I623"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -790,7 +789,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -819,7 +818,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -848,7 +847,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -877,7 +876,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -906,7 +905,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -935,7 +934,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -964,7 +963,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -993,7 +992,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>70</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>70</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>70</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>70</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>70</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>70</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>70</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>70</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>70</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>70</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>70</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>70</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>70</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>70</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>70</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>70</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>70</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>70</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>70</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>70</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>70</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>70</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>70</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>70</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>70</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>70</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>70</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>70</v>
       </c>
@@ -6300,7 +6299,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>70</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>70</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>70</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>70</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>70</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>70</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>70</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>70</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>70</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>70</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>70</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>70</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>70</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>70</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>70</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>70</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>70</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>70</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>70</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>70</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>70</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>70</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>70</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>70</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>70</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>70</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>70</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>70</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>70</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>70</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>70</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>70</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>70</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>70</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>70</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>70</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>70</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>70</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>70</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -7460,7 +7459,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>70</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>70</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>70</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>70</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>70</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>70</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>70</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>70</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>70</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>70</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>70</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>70</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>70</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>70</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>70</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>70</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>70</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>70</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>70</v>
       </c>
@@ -8011,7 +8010,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>70</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>70</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>70</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>70</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>70</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>70</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>70</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>70</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>70</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>70</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>70</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>70</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>70</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>70</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>70</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>70</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>70</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>70</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>70</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>70</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>70</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>70</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>70</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>70</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>70</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>70</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>70</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>70</v>
       </c>
@@ -8823,7 +8822,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>70</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>70</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>70</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>70</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>70</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>70</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>70</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>70</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>70</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>70</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>70</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>70</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>70</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>70</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>70</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>70</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>70</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>70</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>70</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>71</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>71</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>71</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>71</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>71</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>71</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>71</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>71</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>71</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>71</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>71</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>71</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>71</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>71</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>71</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>71</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>71</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>71</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>71</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>71</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>71</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>71</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>71</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>71</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>71</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>71</v>
       </c>
@@ -10302,7 +10301,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>71</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>71</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>71</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>71</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>71</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>71</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>71</v>
       </c>
@@ -10505,7 +10504,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>71</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>71</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>71</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>71</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>71</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>71</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>71</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>71</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>71</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>71</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>71</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>71</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>71</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>71</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>71</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>71</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>71</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>71</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>71</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>71</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>71</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>71</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>71</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>71</v>
       </c>
@@ -11201,7 +11200,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>71</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>71</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>71</v>
       </c>
@@ -11288,7 +11287,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>71</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>71</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>71</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>71</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>71</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>71</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>71</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>71</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>71</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>71</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>71</v>
       </c>
@@ -11607,7 +11606,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>71</v>
       </c>
@@ -11636,7 +11635,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>71</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>71</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>71</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>71</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>71</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>71</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>71</v>
       </c>
@@ -11839,7 +11838,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>71</v>
       </c>
@@ -11868,7 +11867,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>71</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>71</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>71</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>71</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>71</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>71</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>71</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>71</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>71</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>71</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>71</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>71</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>71</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>71</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>71</v>
       </c>
@@ -12303,7 +12302,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>71</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>71</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>71</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>71</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>71</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>71</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>71</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>71</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>71</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>71</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>71</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>71</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>71</v>
       </c>
@@ -12680,7 +12679,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>71</v>
       </c>
@@ -12709,7 +12708,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>71</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>71</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>71</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>71</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>71</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>71</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>71</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>71</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>71</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>71</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>71</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>71</v>
       </c>
@@ -13057,7 +13056,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>71</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>71</v>
       </c>
@@ -13115,7 +13114,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>71</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>71</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>71</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>71</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>71</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>71</v>
       </c>
@@ -13289,7 +13288,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>71</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>71</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>71</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>71</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>71</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>71</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>71</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>71</v>
       </c>
@@ -13521,7 +13520,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>71</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>71</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>71</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>71</v>
       </c>
@@ -13637,7 +13636,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>71</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>71</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>71</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>71</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>71</v>
       </c>
@@ -13898,7 +13897,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>71</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>71</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>71</v>
       </c>
@@ -13985,7 +13984,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>71</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>71</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>71</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>71</v>
       </c>
@@ -14101,7 +14100,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>71</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>71</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>71</v>
       </c>
@@ -14188,7 +14187,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>71</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>71</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>71</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>71</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>71</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>71</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>71</v>
       </c>
@@ -14391,7 +14390,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>71</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>71</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>71</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>71</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>71</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>71</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>71</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>71</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>71</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>71</v>
       </c>
@@ -14681,7 +14680,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>71</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>71</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>71</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>71</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>71</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>71</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>71</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>71</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>71</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>71</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>71</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>71</v>
       </c>
@@ -15029,7 +15028,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>71</v>
       </c>
@@ -15058,7 +15057,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>71</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>71</v>
       </c>
@@ -15116,7 +15115,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>71</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>71</v>
       </c>
@@ -15174,7 +15173,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>71</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>71</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>71</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>71</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>71</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>71</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>71</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>71</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>71</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>71</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>71</v>
       </c>
@@ -15493,7 +15492,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>71</v>
       </c>
@@ -15522,7 +15521,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>71</v>
       </c>
@@ -15551,7 +15550,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>71</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>71</v>
       </c>
@@ -15609,7 +15608,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>71</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>71</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>71</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>71</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>71</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>71</v>
       </c>
@@ -15783,7 +15782,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>71</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>71</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>71</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>71</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>71</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>71</v>
       </c>
@@ -15957,7 +15956,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>71</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>71</v>
       </c>
@@ -16015,7 +16014,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>71</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>71</v>
       </c>
@@ -16073,7 +16072,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>71</v>
       </c>
@@ -16102,7 +16101,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>71</v>
       </c>
@@ -16131,7 +16130,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>71</v>
       </c>
@@ -16160,7 +16159,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>71</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>71</v>
       </c>
@@ -16218,7 +16217,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>71</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>71</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>71</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>71</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>71</v>
       </c>
@@ -16363,7 +16362,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>71</v>
       </c>
@@ -16392,7 +16391,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>71</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>71</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>71</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>71</v>
       </c>
@@ -16508,7 +16507,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>71</v>
       </c>
@@ -16537,7 +16536,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>71</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>71</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>71</v>
       </c>
@@ -16624,7 +16623,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>71</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>71</v>
       </c>
@@ -16682,7 +16681,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>71</v>
       </c>
@@ -16711,7 +16710,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>71</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>71</v>
       </c>
@@ -16769,7 +16768,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>71</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>71</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>71</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>71</v>
       </c>
@@ -16885,7 +16884,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>71</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>71</v>
       </c>
@@ -16943,7 +16942,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>71</v>
       </c>
@@ -16972,7 +16971,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>71</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>71</v>
       </c>
@@ -17030,7 +17029,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>71</v>
       </c>
@@ -17059,7 +17058,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>71</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>71</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>71</v>
       </c>
@@ -17146,7 +17145,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>71</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>71</v>
       </c>
@@ -17204,7 +17203,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>71</v>
       </c>
@@ -17233,7 +17232,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>71</v>
       </c>
@@ -17262,7 +17261,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>71</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>71</v>
       </c>
@@ -17320,7 +17319,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>71</v>
       </c>
@@ -17349,7 +17348,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>71</v>
       </c>
@@ -17378,7 +17377,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>71</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>71</v>
       </c>
@@ -17436,7 +17435,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>71</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>71</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>71</v>
       </c>
@@ -17523,7 +17522,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>71</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>71</v>
       </c>
@@ -17581,7 +17580,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>71</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>71</v>
       </c>
@@ -17639,7 +17638,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>71</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>71</v>
       </c>
@@ -17697,7 +17696,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>71</v>
       </c>
@@ -17726,7 +17725,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>71</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>71</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>71</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>71</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>71</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>71</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>71</v>
       </c>
@@ -17929,7 +17928,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>71</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>71</v>
       </c>
@@ -17987,7 +17986,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>71</v>
       </c>
@@ -18016,7 +18015,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>71</v>
       </c>
@@ -18045,7 +18044,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>71</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>71</v>
       </c>
@@ -18103,7 +18102,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>71</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>71</v>
       </c>
@@ -18161,7 +18160,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>71</v>
       </c>
@@ -18190,7 +18189,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>71</v>
       </c>
@@ -18219,7 +18218,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>71</v>
       </c>
@@ -18248,7 +18247,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>71</v>
       </c>
@@ -18277,7 +18276,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>71</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>71</v>
       </c>
@@ -18335,7 +18334,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>71</v>
       </c>
@@ -18364,7 +18363,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>71</v>
       </c>
@@ -18393,7 +18392,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>71</v>
       </c>
@@ -18422,7 +18421,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>71</v>
       </c>
@@ -18451,7 +18450,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>71</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>71</v>
       </c>
@@ -18509,7 +18508,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>71</v>
       </c>
@@ -18538,7 +18537,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>71</v>
       </c>
@@ -18567,7 +18566,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>71</v>
       </c>
@@ -18596,7 +18595,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>71</v>
       </c>
@@ -18625,7 +18624,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>71</v>
       </c>
@@ -18654,7 +18653,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>71</v>
       </c>
@@ -18683,7 +18682,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>71</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>71</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>71</v>
       </c>
@@ -18770,7 +18769,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>71</v>
       </c>
@@ -18800,18 +18799,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I623" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Stevenspeil"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22130,7 +22117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>

--- a/2023 Maya Thomson/Sum_Stream_Data.xlsx
+++ b/2023 Maya Thomson/Sum_Stream_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D71845-4414-4433-B761-257B5579394C}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{D86D0447-5B71-43A4-A410-5177E1B56E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60133F04-2DE5-400F-B4B9-5893E7317AA7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="91">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>forest</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -713,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
-  <dimension ref="A1:I623"/>
+  <dimension ref="A1:L623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,7 +737,7 @@
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -756,8 +765,17 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -786,7 +804,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -815,7 +833,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -844,7 +862,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -873,7 +891,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -902,7 +920,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -931,7 +949,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -960,7 +978,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1772,7 +1790,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1801,7 +1819,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1975,7 +1993,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2004,7 +2022,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -2061,8 +2079,18 @@
       <c r="I46">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="K46">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L46">
+        <f>J46*(G46)^K46</f>
+        <v>2.6093925311109287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -2091,7 +2119,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -2120,7 +2148,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -2149,7 +2177,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2178,7 +2206,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2207,7 +2235,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2265,7 +2293,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2294,7 +2322,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -2323,7 +2351,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2352,7 +2380,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -2381,7 +2409,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -2410,7 +2438,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2439,7 +2467,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2468,7 +2496,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2497,7 +2525,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2526,7 +2554,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2554,8 +2582,18 @@
       <c r="I63">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="K63">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="L63">
+        <f>J63*(G63)^K63</f>
+        <v>2.6255706250752073</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -8616,7 +8654,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>69</v>
       </c>
@@ -8645,7 +8683,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>69</v>
       </c>
@@ -8674,7 +8712,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>69</v>
       </c>
@@ -8703,7 +8741,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>69</v>
       </c>
@@ -8732,7 +8770,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>69</v>
       </c>
@@ -8761,7 +8799,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>69</v>
       </c>
@@ -8790,7 +8828,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>69</v>
       </c>
@@ -8819,7 +8857,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -8847,8 +8885,18 @@
       <c r="I280">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="K280">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="L280">
+        <f>J280*(G280)^K280</f>
+        <v>2.6276392001504729</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>69</v>
       </c>
@@ -8877,7 +8925,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>69</v>
       </c>
@@ -8906,7 +8954,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>69</v>
       </c>
@@ -8935,7 +8983,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -8964,7 +9012,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>69</v>
       </c>
@@ -8993,7 +9041,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>69</v>
       </c>
@@ -9022,7 +9070,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>69</v>
       </c>
@@ -9051,7 +9099,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>69</v>
       </c>
@@ -11400,7 +11448,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>70</v>
       </c>
@@ -11429,7 +11477,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>70</v>
       </c>
@@ -11458,7 +11506,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>70</v>
       </c>
@@ -11487,7 +11535,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>70</v>
       </c>
@@ -11516,7 +11564,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>70</v>
       </c>
@@ -11544,8 +11592,18 @@
       <c r="I373">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K373">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L373">
+        <f>J373*(G373)^K373</f>
+        <v>3.7608998105373477</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>70</v>
       </c>
@@ -11573,8 +11631,18 @@
       <c r="I374">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K374">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L374">
+        <f t="shared" ref="L373:L376" si="0">J374*(G374)^K374</f>
+        <v>3.7560924419194635</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>70</v>
       </c>
@@ -11602,8 +11670,18 @@
       <c r="I375">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K375">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L375">
+        <f t="shared" si="0"/>
+        <v>3.7653275942338378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>70</v>
       </c>
@@ -11631,8 +11709,18 @@
       <c r="I376">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K376">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L376">
+        <f t="shared" si="0"/>
+        <v>3.7560924419194635</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>70</v>
       </c>
@@ -11661,7 +11749,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>70</v>
       </c>
@@ -11690,7 +11778,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>70</v>
       </c>
@@ -11719,7 +11807,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>70</v>
       </c>
@@ -11748,7 +11836,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>70</v>
       </c>
@@ -11777,7 +11865,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>70</v>
       </c>
@@ -11806,7 +11894,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>70</v>
       </c>
@@ -11835,7 +11923,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>70</v>
       </c>
@@ -14184,7 +14272,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -14213,7 +14301,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>70</v>
       </c>
@@ -14242,7 +14330,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>70</v>
       </c>
@@ -14271,7 +14359,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>70</v>
       </c>
@@ -14300,7 +14388,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>70</v>
       </c>
@@ -14329,7 +14417,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>70</v>
       </c>
@@ -14358,7 +14446,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>70</v>
       </c>
@@ -14387,7 +14475,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>70</v>
       </c>
@@ -14416,7 +14504,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>70</v>
       </c>
@@ -14445,7 +14533,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>70</v>
       </c>
@@ -14474,7 +14562,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>70</v>
       </c>
@@ -14503,7 +14591,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>70</v>
       </c>
@@ -14532,7 +14620,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>70</v>
       </c>
@@ -14561,7 +14649,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>70</v>
       </c>
@@ -14590,7 +14678,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>70</v>
       </c>
@@ -14618,8 +14706,18 @@
       <c r="I479" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K479">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L479">
+        <f t="shared" ref="L479:L482" si="1">J479*(G479)^K479</f>
+        <v>3.7608998105373477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>70</v>
       </c>
@@ -14647,8 +14745,18 @@
       <c r="I480" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K480">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L480">
+        <f t="shared" si="1"/>
+        <v>3.7653275942338378</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>70</v>
       </c>
@@ -14676,8 +14784,18 @@
       <c r="I481" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K481">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L481">
+        <f t="shared" si="1"/>
+        <v>3.7694317289736539</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>70</v>
       </c>
@@ -14705,8 +14823,18 @@
       <c r="I482" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K482">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L482">
+        <f t="shared" si="1"/>
+        <v>3.7694317289736539</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>70</v>
       </c>
@@ -14735,7 +14863,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>70</v>
       </c>
@@ -14763,8 +14891,18 @@
       <c r="I484">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K484">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L484">
+        <f t="shared" ref="L484:L488" si="2">J484*(G484)^K484</f>
+        <v>3.8509388564814935</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>70</v>
       </c>
@@ -14792,8 +14930,18 @@
       <c r="I485">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K485">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L485">
+        <f t="shared" si="2"/>
+        <v>3.7653275942338378</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>70</v>
       </c>
@@ -14821,8 +14969,18 @@
       <c r="I486">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K486">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L486">
+        <f t="shared" si="2"/>
+        <v>3.7608998105373477</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>70</v>
       </c>
@@ -14850,8 +15008,18 @@
       <c r="I487">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K487">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L487">
+        <f t="shared" si="2"/>
+        <v>3.7608998105373477</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>70</v>
       </c>
@@ -14879,8 +15047,18 @@
       <c r="I488">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K488">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L488">
+        <f t="shared" si="2"/>
+        <v>3.7631573410652268</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>70</v>
       </c>
@@ -14909,7 +15087,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>70</v>
       </c>
@@ -14938,7 +15116,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>70</v>
       </c>
@@ -14967,7 +15145,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>70</v>
       </c>
@@ -14996,7 +15174,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>70</v>
       </c>
@@ -15025,7 +15203,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>70</v>
       </c>
@@ -15053,8 +15231,18 @@
       <c r="I494">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K494">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L494">
+        <f t="shared" ref="L494:L495" si="3">J494*(G494)^K494</f>
+        <v>3.7653275942338378</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>70</v>
       </c>
@@ -15082,8 +15270,18 @@
       <c r="I495">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K495">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L495">
+        <f t="shared" si="3"/>
+        <v>3.7560924419194635</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>70</v>
       </c>
@@ -15112,7 +15310,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>70</v>
       </c>
@@ -15141,7 +15339,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>70</v>
       </c>
@@ -15170,7 +15368,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>70</v>
       </c>
@@ -15199,7 +15397,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>70</v>
       </c>
@@ -15228,7 +15426,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>70</v>
       </c>
@@ -15257,7 +15455,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>70</v>
       </c>
@@ -15286,7 +15484,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>70</v>
       </c>
@@ -15315,7 +15513,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>70</v>
       </c>
@@ -15344,7 +15542,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>70</v>
       </c>
@@ -15372,8 +15570,18 @@
       <c r="I505">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505">
+        <v>2.742</v>
+      </c>
+      <c r="K505">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L505">
+        <f>J505*(G505)^K505</f>
+        <v>2.787034323037227</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>70</v>
       </c>
@@ -15401,8 +15609,18 @@
       <c r="I506">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506">
+        <v>2.742</v>
+      </c>
+      <c r="K506">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L506">
+        <f t="shared" ref="L506:L507" si="4">J506*(G506)^K506</f>
+        <v>2.7890291714277518</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>70</v>
       </c>
@@ -15430,8 +15648,18 @@
       <c r="I507">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507">
+        <v>2.742</v>
+      </c>
+      <c r="K507">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L507">
+        <f t="shared" si="4"/>
+        <v>2.7779160646514143</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>70</v>
       </c>
@@ -15460,7 +15688,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>70</v>
       </c>
@@ -15489,7 +15717,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>70</v>
       </c>
@@ -15518,7 +15746,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>70</v>
       </c>
@@ -15547,7 +15775,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>70</v>
       </c>
@@ -16040,7 +16268,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>70</v>
       </c>
@@ -16069,7 +16297,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>70</v>
       </c>
@@ -16098,7 +16326,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>70</v>
       </c>
@@ -16127,7 +16355,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>70</v>
       </c>
@@ -16156,7 +16384,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>70</v>
       </c>
@@ -16185,7 +16413,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>70</v>
       </c>
@@ -16214,7 +16442,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>70</v>
       </c>
@@ -16243,7 +16471,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>70</v>
       </c>
@@ -16272,7 +16500,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>70</v>
       </c>
@@ -16301,7 +16529,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>70</v>
       </c>
@@ -16330,7 +16558,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>70</v>
       </c>
@@ -16359,7 +16587,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>70</v>
       </c>
@@ -16388,7 +16616,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>70</v>
       </c>
@@ -16417,7 +16645,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>70</v>
       </c>
@@ -16445,8 +16673,18 @@
       <c r="I542">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J542">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="K542">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L542">
+        <f>J542*(G542)^K542</f>
+        <v>2.8546349089508793</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>70</v>
       </c>
@@ -16474,8 +16712,18 @@
       <c r="I543">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J543">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="K543">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L543">
+        <f>J543*(G543)^K543</f>
+        <v>2.8451595398128924</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>70</v>
       </c>
@@ -16968,7 +17216,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>70</v>
       </c>
@@ -16997,7 +17245,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>70</v>
       </c>
@@ -17026,7 +17274,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>70</v>
       </c>
@@ -17055,7 +17303,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>70</v>
       </c>
@@ -17084,7 +17332,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>70</v>
       </c>
@@ -17113,7 +17361,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>70</v>
       </c>
@@ -17141,8 +17389,18 @@
       <c r="I566">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J566">
+        <v>2.742</v>
+      </c>
+      <c r="K566">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L566">
+        <f>J566*(G566)^K566</f>
+        <v>2.7840597198252</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>70</v>
       </c>
@@ -17171,7 +17429,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>70</v>
       </c>
@@ -17200,7 +17458,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>70</v>
       </c>
@@ -17229,7 +17487,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>70</v>
       </c>
@@ -17258,7 +17516,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>70</v>
       </c>
@@ -17287,7 +17545,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>70</v>
       </c>
@@ -17316,7 +17574,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>70</v>
       </c>
@@ -17345,7 +17603,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>70</v>
       </c>
@@ -17374,7 +17632,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>70</v>
       </c>
@@ -17403,7 +17661,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>70</v>
       </c>
@@ -17432,7 +17690,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>70</v>
       </c>
@@ -17461,7 +17719,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>70</v>
       </c>
@@ -17490,7 +17748,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>70</v>
       </c>
@@ -17519,7 +17777,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>70</v>
       </c>
@@ -17548,7 +17806,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>70</v>
       </c>
@@ -17577,7 +17835,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>70</v>
       </c>
@@ -17606,7 +17864,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>70</v>
       </c>
@@ -17635,7 +17893,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>70</v>
       </c>
@@ -17664,7 +17922,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>70</v>
       </c>
@@ -17693,7 +17951,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>70</v>
       </c>
@@ -17722,7 +17980,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>70</v>
       </c>
@@ -17751,7 +18009,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>70</v>
       </c>
@@ -17780,7 +18038,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>70</v>
       </c>
@@ -17809,7 +18067,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>70</v>
       </c>
@@ -17838,7 +18096,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>70</v>
       </c>
@@ -17866,8 +18124,18 @@
       <c r="I591">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J591">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K591">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L591">
+        <f>J591*(G591)^K591</f>
+        <v>3.748006511765861</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>70</v>
       </c>
@@ -17896,7 +18164,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>70</v>
       </c>
@@ -17925,7 +18193,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>70</v>
       </c>
@@ -17954,7 +18222,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>70</v>
       </c>
@@ -17983,7 +18251,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>70</v>
       </c>
@@ -18011,8 +18279,18 @@
       <c r="I596">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J596">
+        <v>2.742</v>
+      </c>
+      <c r="K596">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L596">
+        <f>J596*(G596)^K596</f>
+        <v>2.7773919167898065</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>70</v>
       </c>
@@ -18040,8 +18318,18 @@
       <c r="I597">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J597">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K597">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L597">
+        <f>J597*(G597)^K597</f>
+        <v>3.748006511765861</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>70</v>
       </c>
@@ -18069,8 +18357,18 @@
       <c r="I598">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J598">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="K598">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L598">
+        <f>J598*(G598)^K598</f>
+        <v>3.7508336172070287</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>70</v>
       </c>
@@ -18099,7 +18397,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>70</v>
       </c>
@@ -18128,7 +18426,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>70</v>
       </c>
@@ -18157,7 +18455,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>70</v>
       </c>
@@ -18186,7 +18484,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>70</v>
       </c>
@@ -18215,7 +18513,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>70</v>
       </c>
@@ -18244,7 +18542,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>70</v>
       </c>
@@ -18273,7 +18571,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>70</v>
       </c>
@@ -18302,7 +18600,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>70</v>
       </c>
@@ -18331,7 +18629,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>70</v>
       </c>
@@ -18360,7 +18658,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>70</v>
       </c>
@@ -18389,7 +18687,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>70</v>
       </c>
@@ -18418,7 +18716,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>70</v>
       </c>
@@ -18447,7 +18745,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>70</v>
       </c>
@@ -18476,7 +18774,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>70</v>
       </c>
@@ -18505,7 +18803,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>70</v>
       </c>
@@ -18534,7 +18832,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>70</v>
       </c>
@@ -18563,7 +18861,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>70</v>
       </c>
@@ -18592,7 +18890,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>70</v>
       </c>
@@ -18621,7 +18919,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>70</v>
       </c>
@@ -18650,7 +18948,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>70</v>
       </c>
@@ -18679,7 +18977,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>70</v>
       </c>
@@ -18708,7 +19006,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>70</v>
       </c>
@@ -18737,7 +19035,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>70</v>
       </c>
@@ -18766,7 +19064,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>70</v>
       </c>
@@ -18794,9 +19092,23 @@
       <c r="I623">
         <v>3.88</v>
       </c>
+      <c r="J623">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="K623">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L623">
+        <f>J623*(G623)^K623</f>
+        <v>2.8451595398128924</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I623" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L374:L598" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
